--- a/data/parroquiasDesglose.xlsx
+++ b/data/parroquiasDesglose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreidavid.flores\Downloads\Work\Parroquias Datos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B203DC-AB6E-42F0-A09F-00193E704C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9793B9B-376E-4985-A971-D97617245622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F6A37CA0-9330-4E94-8128-7DF73B289A6D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F6A37CA0-9330-4E94-8128-7DF73B289A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AG$71</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="105">
   <si>
     <t>Provincia</t>
   </si>
@@ -339,6 +342,21 @@
   </si>
   <si>
     <t>Nota.</t>
+  </si>
+  <si>
+    <t>Sangolqui</t>
+  </si>
+  <si>
+    <t>VALLE1</t>
+  </si>
+  <si>
+    <t>De 0 a 4 años</t>
+  </si>
+  <si>
+    <t>De 85 o mas</t>
+  </si>
+  <si>
+    <t>Cotogchoa</t>
   </si>
 </sst>
 </file>
@@ -504,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -533,11 +551,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -551,6 +564,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1438,15 +1462,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A143ABFC-0DC5-46B0-BF60-53BE90F85110}">
-  <dimension ref="A1:AE68"/>
+  <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1478,70 +1505,76 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1574,70 +1607,78 @@
         <v>1510</v>
       </c>
       <c r="K2" s="6">
+        <f>J2+I2</f>
+        <v>1814</v>
+      </c>
+      <c r="L2" s="6">
         <v>2471</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <v>2711</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>2679</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <v>2734</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <v>2618</v>
       </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="6">
         <v>2593</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="R2" s="6">
         <v>2684</v>
       </c>
-      <c r="R2" s="6">
+      <c r="S2" s="6">
         <v>2694</v>
       </c>
-      <c r="S2" s="6">
+      <c r="T2" s="6">
         <v>2315</v>
       </c>
-      <c r="T2" s="6">
+      <c r="U2" s="6">
         <v>2028</v>
       </c>
-      <c r="U2" s="6">
+      <c r="V2" s="6">
         <v>1842</v>
       </c>
-      <c r="V2" s="6">
+      <c r="W2" s="6">
         <v>1653</v>
       </c>
-      <c r="W2" s="6">
+      <c r="X2" s="6">
         <v>1323</v>
       </c>
-      <c r="X2" s="6">
+      <c r="Y2" s="6">
         <v>934</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Z2" s="6">
         <v>627</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="AA2" s="6">
         <v>461</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AB2" s="6">
+        <f>SUM(AC2:AF2)</f>
+        <v>474</v>
+      </c>
+      <c r="AC2" s="6">
         <v>267</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AD2" s="6">
         <v>158</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AE2" s="6">
         <v>36</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AF2" s="6">
         <v>13</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AG2" s="6">
         <v>34655</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -1670,70 +1711,78 @@
         <v>2248</v>
       </c>
       <c r="K3" s="6">
+        <f t="shared" ref="K3:K66" si="0">J3+I3</f>
+        <v>2757</v>
+      </c>
+      <c r="L3" s="6">
         <v>3393</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>3734</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="6">
         <v>3903</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>3721</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="6">
         <v>3593</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="6">
         <v>3409</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <v>3427</v>
       </c>
-      <c r="R3" s="6">
+      <c r="S3" s="6">
         <v>3203</v>
       </c>
-      <c r="S3" s="6">
+      <c r="T3" s="6">
         <v>2628</v>
       </c>
-      <c r="T3" s="6">
+      <c r="U3" s="6">
         <v>2333</v>
       </c>
-      <c r="U3" s="6">
+      <c r="V3" s="6">
         <v>2005</v>
       </c>
-      <c r="V3" s="6">
+      <c r="W3" s="6">
         <v>1583</v>
       </c>
-      <c r="W3" s="6">
+      <c r="X3" s="6">
         <v>1212</v>
       </c>
-      <c r="X3" s="6">
+      <c r="Y3" s="6">
         <v>761</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Z3" s="6">
         <v>657</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="AA3" s="6">
         <v>473</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AB3" s="6">
+        <f t="shared" ref="AB3:AB66" si="1">SUM(AC3:AF3)</f>
+        <v>443</v>
+      </c>
+      <c r="AC3" s="6">
         <v>251</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AD3" s="6">
         <v>145</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AE3" s="6">
         <v>45</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AF3" s="6">
         <v>2</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AG3" s="6">
         <v>43235</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1766,70 +1815,78 @@
         <v>55</v>
       </c>
       <c r="K4" s="6">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="L4" s="6">
         <v>84</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <v>124</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="6">
         <v>116</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>90</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>79</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>82</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>89</v>
       </c>
-      <c r="R4" s="6">
+      <c r="S4" s="6">
         <v>87</v>
       </c>
-      <c r="S4" s="6">
+      <c r="T4" s="6">
         <v>89</v>
       </c>
-      <c r="T4" s="6">
+      <c r="U4" s="6">
         <v>75</v>
       </c>
-      <c r="U4" s="6">
+      <c r="V4" s="6">
         <v>77</v>
       </c>
-      <c r="V4" s="6">
+      <c r="W4" s="6">
         <v>94</v>
       </c>
-      <c r="W4" s="6">
+      <c r="X4" s="6">
         <v>93</v>
       </c>
-      <c r="X4" s="6">
+      <c r="Y4" s="6">
         <v>58</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Z4" s="6">
         <v>54</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="AA4" s="6">
         <v>46</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AB4" s="6">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="AC4" s="6">
         <v>31</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AD4" s="6">
         <v>10</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AG4" s="6">
         <v>1446</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1861,71 +1918,79 @@
       <c r="J5" s="7">
         <v>1923</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>2345</v>
+      </c>
+      <c r="L5" s="7">
         <v>2969</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <v>3487</v>
       </c>
-      <c r="M5" s="7">
+      <c r="N5" s="7">
         <v>3597</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O5" s="7">
         <v>4425</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <v>4533</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="7">
         <v>4411</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="R5" s="7">
         <v>4018</v>
       </c>
-      <c r="R5" s="7">
+      <c r="S5" s="7">
         <v>3524</v>
       </c>
-      <c r="S5" s="7">
+      <c r="T5" s="7">
         <v>3047</v>
       </c>
-      <c r="T5" s="7">
+      <c r="U5" s="7">
         <v>2870</v>
       </c>
-      <c r="U5" s="7">
+      <c r="V5" s="7">
         <v>2654</v>
       </c>
-      <c r="V5" s="7">
+      <c r="W5" s="7">
         <v>2423</v>
       </c>
-      <c r="W5" s="7">
+      <c r="X5" s="7">
         <v>2017</v>
       </c>
-      <c r="X5" s="7">
+      <c r="Y5" s="7">
         <v>1588</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Z5" s="7">
         <v>1022</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="AA5" s="7">
         <v>726</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AB5" s="6">
+        <f t="shared" si="1"/>
+        <v>844</v>
+      </c>
+      <c r="AC5" s="7">
         <v>451</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AD5" s="7">
         <v>300</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AE5" s="7">
         <v>79</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AF5" s="7">
         <v>14</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AG5" s="7">
         <v>50500</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1958,70 +2023,78 @@
         <v>257</v>
       </c>
       <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>311</v>
+      </c>
+      <c r="L6" s="6">
         <v>381</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>411</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>454</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>453</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>405</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <v>372</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>320</v>
       </c>
-      <c r="R6" s="6">
+      <c r="S6" s="6">
         <v>330</v>
       </c>
-      <c r="S6" s="6">
+      <c r="T6" s="6">
         <v>292</v>
       </c>
-      <c r="T6" s="6">
+      <c r="U6" s="6">
         <v>293</v>
       </c>
-      <c r="U6" s="6">
+      <c r="V6" s="6">
         <v>199</v>
       </c>
-      <c r="V6" s="6">
+      <c r="W6" s="6">
         <v>186</v>
       </c>
-      <c r="W6" s="6">
+      <c r="X6" s="6">
         <v>158</v>
       </c>
-      <c r="X6" s="6">
+      <c r="Y6" s="6">
         <v>123</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Z6" s="6">
         <v>107</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="AA6" s="6">
         <v>85</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AB6" s="6">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="AC6" s="6">
         <v>48</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AD6" s="6">
         <v>29</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AE6" s="6">
         <v>6</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AF6" s="6">
         <v>1</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AG6" s="6">
         <v>4964</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -2054,70 +2127,78 @@
         <v>12780</v>
       </c>
       <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>15650</v>
+      </c>
+      <c r="L7" s="6">
         <v>20146</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>22583</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>22188</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>22088</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>21229</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>20628</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>20934</v>
       </c>
-      <c r="R7" s="6">
+      <c r="S7" s="6">
         <v>18981</v>
       </c>
-      <c r="S7" s="6">
+      <c r="T7" s="6">
         <v>15620</v>
       </c>
-      <c r="T7" s="6">
+      <c r="U7" s="6">
         <v>13184</v>
       </c>
-      <c r="U7" s="6">
+      <c r="V7" s="6">
         <v>11034</v>
       </c>
-      <c r="V7" s="6">
+      <c r="W7" s="6">
         <v>9034</v>
       </c>
-      <c r="W7" s="6">
+      <c r="X7" s="6">
         <v>6712</v>
       </c>
-      <c r="X7" s="6">
+      <c r="Y7" s="6">
         <v>4405</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Z7" s="6">
         <v>2893</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="AA7" s="6">
         <v>1810</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AB7" s="6">
+        <f t="shared" si="1"/>
+        <v>1758</v>
+      </c>
+      <c r="AC7" s="6">
         <v>1077</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AD7" s="6">
         <v>503</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AE7" s="6">
         <v>151</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AF7" s="6">
         <v>27</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AG7" s="6">
         <v>250877</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -2149,71 +2230,79 @@
       <c r="J8" s="7">
         <v>2791</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>3394</v>
+      </c>
+      <c r="L8" s="7">
         <v>4663</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>5215</v>
       </c>
-      <c r="M8" s="7">
+      <c r="N8" s="7">
         <v>5280</v>
       </c>
-      <c r="N8" s="7">
+      <c r="O8" s="7">
         <v>5382</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <v>5385</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <v>5221</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="R8" s="7">
         <v>5460</v>
       </c>
-      <c r="R8" s="7">
+      <c r="S8" s="7">
         <v>5166</v>
       </c>
-      <c r="S8" s="7">
+      <c r="T8" s="7">
         <v>4551</v>
       </c>
-      <c r="T8" s="7">
+      <c r="U8" s="7">
         <v>3917</v>
       </c>
-      <c r="U8" s="7">
+      <c r="V8" s="7">
         <v>3470</v>
       </c>
-      <c r="V8" s="7">
+      <c r="W8" s="7">
         <v>2907</v>
       </c>
-      <c r="W8" s="7">
+      <c r="X8" s="7">
         <v>2668</v>
       </c>
-      <c r="X8" s="7">
+      <c r="Y8" s="7">
         <v>1970</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Z8" s="7">
         <v>1308</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="AA8" s="7">
         <v>703</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AB8" s="6">
+        <f t="shared" si="1"/>
+        <v>581</v>
+      </c>
+      <c r="AC8" s="7">
         <v>357</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AD8" s="7">
         <v>182</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AE8" s="7">
         <v>37</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AF8" s="7">
         <v>5</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AG8" s="7">
         <v>67241</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -2245,71 +2334,79 @@
       <c r="J9" s="7">
         <v>1477</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>1792</v>
+      </c>
+      <c r="L9" s="7">
         <v>2040</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>2271</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N9" s="7">
         <v>2414</v>
       </c>
-      <c r="N9" s="7">
+      <c r="O9" s="7">
         <v>2535</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>2488</v>
       </c>
-      <c r="P9" s="7">
+      <c r="Q9" s="7">
         <v>2235</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="R9" s="7">
         <v>2102</v>
       </c>
-      <c r="R9" s="7">
+      <c r="S9" s="7">
         <v>1971</v>
       </c>
-      <c r="S9" s="7">
+      <c r="T9" s="7">
         <v>1740</v>
       </c>
-      <c r="T9" s="7">
+      <c r="U9" s="7">
         <v>1639</v>
       </c>
-      <c r="U9" s="7">
+      <c r="V9" s="7">
         <v>1532</v>
       </c>
-      <c r="V9" s="7">
+      <c r="W9" s="7">
         <v>1291</v>
       </c>
-      <c r="W9" s="7">
+      <c r="X9" s="7">
         <v>1100</v>
       </c>
-      <c r="X9" s="7">
+      <c r="Y9" s="7">
         <v>861</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Z9" s="7">
         <v>636</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="AA9" s="7">
         <v>433</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AB9" s="6">
+        <f t="shared" si="1"/>
+        <v>429</v>
+      </c>
+      <c r="AC9" s="7">
         <v>236</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AD9" s="7">
         <v>143</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AE9" s="7">
         <v>45</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AF9" s="7">
         <v>5</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AG9" s="7">
         <v>29509</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -2342,70 +2439,78 @@
         <v>22</v>
       </c>
       <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="L10" s="6">
         <v>30</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <v>46</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="6">
         <v>62</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
         <v>39</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <v>29</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <v>30</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <v>27</v>
       </c>
-      <c r="R10" s="6">
+      <c r="S10" s="6">
         <v>22</v>
       </c>
-      <c r="S10" s="6">
+      <c r="T10" s="6">
         <v>44</v>
       </c>
-      <c r="T10" s="6">
+      <c r="U10" s="6">
         <v>27</v>
       </c>
-      <c r="U10" s="6">
+      <c r="V10" s="6">
         <v>34</v>
       </c>
-      <c r="V10" s="6">
+      <c r="W10" s="6">
         <v>28</v>
       </c>
-      <c r="W10" s="6">
+      <c r="X10" s="6">
         <v>33</v>
       </c>
-      <c r="X10" s="6">
+      <c r="Y10" s="6">
         <v>25</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Z10" s="6">
         <v>17</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="AA10" s="6">
         <v>26</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AB10" s="6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="AC10" s="6">
         <v>12</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AD10" s="6">
         <v>16</v>
       </c>
-      <c r="AC10" s="6" t="s">
+      <c r="AE10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AF10" s="6">
         <v>3</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AG10" s="6">
         <v>579</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -2438,70 +2543,78 @@
         <v>668</v>
       </c>
       <c r="K11" s="6">
+        <f t="shared" si="0"/>
+        <v>831</v>
+      </c>
+      <c r="L11" s="6">
         <v>942</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>1020</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="6">
         <v>1049</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>1107</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <v>1072</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="6">
         <v>895</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="R11" s="6">
         <v>857</v>
       </c>
-      <c r="R11" s="6">
+      <c r="S11" s="6">
         <v>756</v>
       </c>
-      <c r="S11" s="6">
+      <c r="T11" s="6">
         <v>667</v>
       </c>
-      <c r="T11" s="6">
+      <c r="U11" s="6">
         <v>573</v>
       </c>
-      <c r="U11" s="6">
+      <c r="V11" s="6">
         <v>421</v>
       </c>
-      <c r="V11" s="6">
+      <c r="W11" s="6">
         <v>344</v>
       </c>
-      <c r="W11" s="6">
+      <c r="X11" s="6">
         <v>304</v>
       </c>
-      <c r="X11" s="6">
+      <c r="Y11" s="6">
         <v>224</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Z11" s="6">
         <v>190</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="AA11" s="6">
         <v>121</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AB11" s="6">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="AC11" s="6">
         <v>67</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AD11" s="6">
         <v>34</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AE11" s="6">
         <v>14</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AF11" s="6">
         <v>4</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AG11" s="6">
         <v>11492</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -2533,71 +2646,79 @@
       <c r="J12" s="7">
         <v>2257</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+      <c r="L12" s="7">
         <v>3334</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>3857</v>
       </c>
-      <c r="M12" s="7">
+      <c r="N12" s="7">
         <v>3964</v>
       </c>
-      <c r="N12" s="7">
+      <c r="O12" s="7">
         <v>3884</v>
       </c>
-      <c r="O12" s="7">
+      <c r="P12" s="7">
         <v>3853</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="7">
         <v>3648</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="R12" s="7">
         <v>3431</v>
       </c>
-      <c r="R12" s="7">
+      <c r="S12" s="7">
         <v>3085</v>
       </c>
-      <c r="S12" s="7">
+      <c r="T12" s="7">
         <v>2925</v>
       </c>
-      <c r="T12" s="7">
+      <c r="U12" s="7">
         <v>2723</v>
       </c>
-      <c r="U12" s="7">
+      <c r="V12" s="7">
         <v>2178</v>
       </c>
-      <c r="V12" s="7">
+      <c r="W12" s="7">
         <v>1939</v>
       </c>
-      <c r="W12" s="7">
+      <c r="X12" s="7">
         <v>1575</v>
       </c>
-      <c r="X12" s="7">
+      <c r="Y12" s="7">
         <v>1144</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Z12" s="7">
         <v>868</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="AA12" s="7">
         <v>581</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AB12" s="6">
+        <f t="shared" si="1"/>
+        <v>535</v>
+      </c>
+      <c r="AC12" s="7">
         <v>329</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AD12" s="7">
         <v>167</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AE12" s="7">
         <v>37</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AF12" s="7">
         <v>2</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AG12" s="7">
         <v>46244</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -2629,71 +2750,79 @@
       <c r="J13" s="7">
         <v>3603</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
+        <f t="shared" si="0"/>
+        <v>4380</v>
+      </c>
+      <c r="L13" s="7">
         <v>5534</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M13" s="7">
         <v>6478</v>
       </c>
-      <c r="M13" s="7">
+      <c r="N13" s="7">
         <v>6400</v>
       </c>
-      <c r="N13" s="7">
+      <c r="O13" s="7">
         <v>6234</v>
       </c>
-      <c r="O13" s="7">
+      <c r="P13" s="7">
         <v>5743</v>
       </c>
-      <c r="P13" s="7">
+      <c r="Q13" s="7">
         <v>5309</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="R13" s="7">
         <v>5161</v>
       </c>
-      <c r="R13" s="7">
+      <c r="S13" s="7">
         <v>4918</v>
       </c>
-      <c r="S13" s="7">
+      <c r="T13" s="7">
         <v>4068</v>
       </c>
-      <c r="T13" s="7">
+      <c r="U13" s="7">
         <v>3546</v>
       </c>
-      <c r="U13" s="7">
+      <c r="V13" s="7">
         <v>2982</v>
       </c>
-      <c r="V13" s="7">
+      <c r="W13" s="7">
         <v>2531</v>
       </c>
-      <c r="W13" s="7">
+      <c r="X13" s="7">
         <v>2008</v>
       </c>
-      <c r="X13" s="7">
+      <c r="Y13" s="7">
         <v>1441</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Z13" s="7">
         <v>923</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="AA13" s="7">
         <v>548</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AB13" s="6">
+        <f t="shared" si="1"/>
+        <v>497</v>
+      </c>
+      <c r="AC13" s="7">
         <v>291</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AD13" s="7">
         <v>149</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AE13" s="7">
         <v>50</v>
       </c>
-      <c r="AD13" s="7">
+      <c r="AF13" s="7">
         <v>7</v>
       </c>
-      <c r="AE13" s="7">
+      <c r="AG13" s="7">
         <v>68701</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -2725,71 +2854,79 @@
       <c r="J14" s="7">
         <v>1413</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="L14" s="7">
         <v>2087</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="7">
         <v>2395</v>
       </c>
-      <c r="M14" s="7">
+      <c r="N14" s="7">
         <v>2401</v>
       </c>
-      <c r="N14" s="7">
+      <c r="O14" s="7">
         <v>2745</v>
       </c>
-      <c r="O14" s="7">
+      <c r="P14" s="7">
         <v>2924</v>
       </c>
-      <c r="P14" s="7">
+      <c r="Q14" s="7">
         <v>2663</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="R14" s="7">
         <v>2550</v>
       </c>
-      <c r="R14" s="7">
+      <c r="S14" s="7">
         <v>2267</v>
       </c>
-      <c r="S14" s="7">
+      <c r="T14" s="7">
         <v>1969</v>
       </c>
-      <c r="T14" s="7">
+      <c r="U14" s="7">
         <v>2091</v>
       </c>
-      <c r="U14" s="7">
+      <c r="V14" s="7">
         <v>2058</v>
       </c>
-      <c r="V14" s="7">
+      <c r="W14" s="7">
         <v>1843</v>
       </c>
-      <c r="W14" s="7">
+      <c r="X14" s="7">
         <v>1474</v>
       </c>
-      <c r="X14" s="7">
+      <c r="Y14" s="7">
         <v>1238</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Z14" s="7">
         <v>812</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="AA14" s="7">
         <v>596</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AB14" s="6">
+        <f t="shared" si="1"/>
+        <v>587</v>
+      </c>
+      <c r="AC14" s="7">
         <v>317</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AD14" s="7">
         <v>210</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AE14" s="7">
         <v>47</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AF14" s="7">
         <v>13</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AG14" s="7">
         <v>34380</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -2821,71 +2958,79 @@
       <c r="J15" s="7">
         <v>3165</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
+        <f t="shared" si="0"/>
+        <v>3846</v>
+      </c>
+      <c r="L15" s="7">
         <v>4843</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>5368</v>
       </c>
-      <c r="M15" s="7">
+      <c r="N15" s="7">
         <v>5369</v>
       </c>
-      <c r="N15" s="7">
+      <c r="O15" s="7">
         <v>5367</v>
       </c>
-      <c r="O15" s="7">
+      <c r="P15" s="7">
         <v>5363</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Q15" s="7">
         <v>5388</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="R15" s="7">
         <v>5246</v>
       </c>
-      <c r="R15" s="7">
+      <c r="S15" s="7">
         <v>4894</v>
       </c>
-      <c r="S15" s="7">
+      <c r="T15" s="7">
         <v>3860</v>
       </c>
-      <c r="T15" s="7">
+      <c r="U15" s="7">
         <v>3461</v>
       </c>
-      <c r="U15" s="7">
+      <c r="V15" s="7">
         <v>3140</v>
       </c>
-      <c r="V15" s="7">
+      <c r="W15" s="7">
         <v>2549</v>
       </c>
-      <c r="W15" s="7">
+      <c r="X15" s="7">
         <v>2012</v>
       </c>
-      <c r="X15" s="7">
+      <c r="Y15" s="7">
         <v>1379</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Z15" s="7">
         <v>1003</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="AA15" s="7">
         <v>600</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AB15" s="6">
+        <f t="shared" si="1"/>
+        <v>538</v>
+      </c>
+      <c r="AC15" s="7">
         <v>344</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AD15" s="7">
         <v>152</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AE15" s="7">
         <v>33</v>
       </c>
-      <c r="AD15" s="7">
+      <c r="AF15" s="7">
         <v>9</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AG15" s="7">
         <v>64226</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2917,71 +3062,79 @@
       <c r="J16" s="7">
         <v>2594</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
+        <f t="shared" si="0"/>
+        <v>3135</v>
+      </c>
+      <c r="L16" s="7">
         <v>4087</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>4512</v>
       </c>
-      <c r="M16" s="7">
+      <c r="N16" s="7">
         <v>4487</v>
       </c>
-      <c r="N16" s="7">
+      <c r="O16" s="7">
         <v>4663</v>
       </c>
-      <c r="O16" s="7">
+      <c r="P16" s="7">
         <v>4646</v>
       </c>
-      <c r="P16" s="7">
+      <c r="Q16" s="7">
         <v>4342</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="R16" s="7">
         <v>4313</v>
       </c>
-      <c r="R16" s="7">
+      <c r="S16" s="7">
         <v>3939</v>
       </c>
-      <c r="S16" s="7">
+      <c r="T16" s="7">
         <v>3416</v>
       </c>
-      <c r="T16" s="7">
+      <c r="U16" s="7">
         <v>2895</v>
       </c>
-      <c r="U16" s="7">
+      <c r="V16" s="7">
         <v>2433</v>
       </c>
-      <c r="V16" s="7">
+      <c r="W16" s="7">
         <v>1886</v>
       </c>
-      <c r="W16" s="7">
+      <c r="X16" s="7">
         <v>1469</v>
       </c>
-      <c r="X16" s="7">
+      <c r="Y16" s="7">
         <v>1234</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Z16" s="7">
         <v>804</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="AA16" s="7">
         <v>499</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AB16" s="6">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="AC16" s="7">
         <v>300</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AD16" s="7">
         <v>151</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AE16" s="7">
         <v>39</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AF16" s="7">
         <v>3</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AG16" s="7">
         <v>53253</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" ht="23" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -3013,71 +3166,79 @@
       <c r="J17" s="7">
         <v>922</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
+        <f t="shared" si="0"/>
+        <v>1123</v>
+      </c>
+      <c r="L17" s="7">
         <v>1452</v>
       </c>
-      <c r="L17" s="7">
+      <c r="M17" s="7">
         <v>1614</v>
       </c>
-      <c r="M17" s="7">
+      <c r="N17" s="7">
         <v>1701</v>
       </c>
-      <c r="N17" s="7">
+      <c r="O17" s="7">
         <v>2086</v>
       </c>
-      <c r="O17" s="7">
+      <c r="P17" s="7">
         <v>2242</v>
       </c>
-      <c r="P17" s="7">
+      <c r="Q17" s="7">
         <v>2503</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="R17" s="7">
         <v>2340</v>
       </c>
-      <c r="R17" s="7">
+      <c r="S17" s="7">
         <v>1998</v>
       </c>
-      <c r="S17" s="7">
+      <c r="T17" s="7">
         <v>1816</v>
       </c>
-      <c r="T17" s="7">
+      <c r="U17" s="7">
         <v>1929</v>
       </c>
-      <c r="U17" s="7">
+      <c r="V17" s="7">
         <v>1931</v>
       </c>
-      <c r="V17" s="7">
+      <c r="W17" s="7">
         <v>1760</v>
       </c>
-      <c r="W17" s="7">
+      <c r="X17" s="7">
         <v>1550</v>
       </c>
-      <c r="X17" s="7">
+      <c r="Y17" s="7">
         <v>1293</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Z17" s="7">
         <v>1084</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="AA17" s="7">
         <v>893</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AB17" s="6">
+        <f t="shared" si="1"/>
+        <v>930</v>
+      </c>
+      <c r="AC17" s="7">
         <v>567</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AD17" s="7">
         <v>278</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AE17" s="7">
         <v>73</v>
       </c>
-      <c r="AD17" s="7">
+      <c r="AF17" s="7">
         <v>12</v>
       </c>
-      <c r="AE17" s="7">
+      <c r="AG17" s="7">
         <v>30245</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -3110,70 +3271,78 @@
         <v>5471</v>
       </c>
       <c r="K18" s="6">
+        <f t="shared" si="0"/>
+        <v>6568</v>
+      </c>
+      <c r="L18" s="6">
         <v>8862</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="6">
         <v>9819</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="6">
         <v>9978</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="6">
         <v>9886</v>
       </c>
-      <c r="O18" s="6">
+      <c r="P18" s="6">
         <v>9820</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <v>9835</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="R18" s="6">
         <v>10507</v>
       </c>
-      <c r="R18" s="6">
+      <c r="S18" s="6">
         <v>10149</v>
       </c>
-      <c r="S18" s="6">
+      <c r="T18" s="6">
         <v>8605</v>
       </c>
-      <c r="T18" s="6">
+      <c r="U18" s="6">
         <v>7429</v>
       </c>
-      <c r="U18" s="6">
+      <c r="V18" s="6">
         <v>7015</v>
       </c>
-      <c r="V18" s="6">
+      <c r="W18" s="6">
         <v>6023</v>
       </c>
-      <c r="W18" s="6">
+      <c r="X18" s="6">
         <v>4796</v>
       </c>
-      <c r="X18" s="6">
+      <c r="Y18" s="6">
         <v>3434</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Z18" s="6">
         <v>2286</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="AA18" s="6">
         <v>1418</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AB18" s="6">
+        <f t="shared" si="1"/>
+        <v>1385</v>
+      </c>
+      <c r="AC18" s="6">
         <v>805</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AD18" s="6">
         <v>424</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AE18" s="6">
         <v>132</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AF18" s="6">
         <v>24</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AG18" s="6">
         <v>127815</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -3205,71 +3374,79 @@
       <c r="J19" s="7">
         <v>1008</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
+        <f t="shared" si="0"/>
+        <v>1197</v>
+      </c>
+      <c r="L19" s="7">
         <v>1588</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M19" s="7">
         <v>1898</v>
       </c>
-      <c r="M19" s="7">
+      <c r="N19" s="7">
         <v>1981</v>
       </c>
-      <c r="N19" s="7">
+      <c r="O19" s="7">
         <v>2065</v>
       </c>
-      <c r="O19" s="7">
+      <c r="P19" s="7">
         <v>2219</v>
       </c>
-      <c r="P19" s="7">
+      <c r="Q19" s="7">
         <v>2292</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="R19" s="7">
         <v>2165</v>
       </c>
-      <c r="R19" s="7">
+      <c r="S19" s="7">
         <v>2173</v>
       </c>
-      <c r="S19" s="7">
+      <c r="T19" s="7">
         <v>1804</v>
       </c>
-      <c r="T19" s="7">
+      <c r="U19" s="7">
         <v>1686</v>
       </c>
-      <c r="U19" s="7">
+      <c r="V19" s="7">
         <v>1584</v>
       </c>
-      <c r="V19" s="7">
+      <c r="W19" s="7">
         <v>1583</v>
       </c>
-      <c r="W19" s="7">
+      <c r="X19" s="7">
         <v>1336</v>
       </c>
-      <c r="X19" s="7">
+      <c r="Y19" s="7">
         <v>1153</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Z19" s="7">
         <v>806</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="AA19" s="7">
         <v>539</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="AB19" s="6">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="AC19" s="7">
         <v>299</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AD19" s="7">
         <v>175</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AE19" s="7">
         <v>32</v>
       </c>
-      <c r="AD19" s="7">
+      <c r="AF19" s="7">
         <v>4</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AG19" s="7">
         <v>28579</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -3302,70 +3479,78 @@
         <v>1506</v>
       </c>
       <c r="K20" s="6">
+        <f t="shared" si="0"/>
+        <v>1836</v>
+      </c>
+      <c r="L20" s="6">
         <v>2540</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <v>2929</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <v>3064</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20" s="6">
         <v>3175</v>
       </c>
-      <c r="O20" s="6">
+      <c r="P20" s="6">
         <v>2863</v>
       </c>
-      <c r="P20" s="6">
+      <c r="Q20" s="6">
         <v>2864</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="R20" s="6">
         <v>3054</v>
       </c>
-      <c r="R20" s="6">
+      <c r="S20" s="6">
         <v>3194</v>
       </c>
-      <c r="S20" s="6">
+      <c r="T20" s="6">
         <v>3151</v>
       </c>
-      <c r="T20" s="6">
+      <c r="U20" s="6">
         <v>2904</v>
       </c>
-      <c r="U20" s="6">
+      <c r="V20" s="6">
         <v>2466</v>
       </c>
-      <c r="V20" s="6">
+      <c r="W20" s="6">
         <v>2219</v>
       </c>
-      <c r="W20" s="6">
+      <c r="X20" s="6">
         <v>1910</v>
       </c>
-      <c r="X20" s="6">
+      <c r="Y20" s="6">
         <v>1395</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Z20" s="6">
         <v>991</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="AA20" s="6">
         <v>617</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AB20" s="6">
+        <f t="shared" si="1"/>
+        <v>647</v>
+      </c>
+      <c r="AC20" s="6">
         <v>365</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AD20" s="6">
         <v>208</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AE20" s="6">
         <v>69</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AF20" s="6">
         <v>5</v>
       </c>
-      <c r="AE20" s="6">
+      <c r="AG20" s="6">
         <v>41819</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3397,71 +3582,79 @@
       <c r="J21" s="7">
         <v>6332</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
+        <f t="shared" si="0"/>
+        <v>7710</v>
+      </c>
+      <c r="L21" s="7">
         <v>9543</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M21" s="7">
         <v>10887</v>
       </c>
-      <c r="M21" s="7">
+      <c r="N21" s="7">
         <v>10498</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O21" s="7">
         <v>10592</v>
       </c>
-      <c r="O21" s="7">
+      <c r="P21" s="7">
         <v>10082</v>
       </c>
-      <c r="P21" s="7">
+      <c r="Q21" s="7">
         <v>9363</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="R21" s="7">
         <v>9372</v>
       </c>
-      <c r="R21" s="7">
+      <c r="S21" s="7">
         <v>8531</v>
       </c>
-      <c r="S21" s="7">
+      <c r="T21" s="7">
         <v>6764</v>
       </c>
-      <c r="T21" s="7">
+      <c r="U21" s="7">
         <v>5673</v>
       </c>
-      <c r="U21" s="7">
+      <c r="V21" s="7">
         <v>4761</v>
       </c>
-      <c r="V21" s="7">
+      <c r="W21" s="7">
         <v>4134</v>
       </c>
-      <c r="W21" s="7">
+      <c r="X21" s="7">
         <v>3066</v>
       </c>
-      <c r="X21" s="7">
+      <c r="Y21" s="7">
         <v>2130</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Z21" s="7">
         <v>1342</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="AA21" s="7">
         <v>790</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AB21" s="6">
+        <f t="shared" si="1"/>
+        <v>723</v>
+      </c>
+      <c r="AC21" s="7">
         <v>442</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AD21" s="7">
         <v>204</v>
       </c>
-      <c r="AC21" s="7">
+      <c r="AE21" s="7">
         <v>70</v>
       </c>
-      <c r="AD21" s="7">
+      <c r="AF21" s="7">
         <v>7</v>
       </c>
-      <c r="AE21" s="7">
+      <c r="AG21" s="7">
         <v>115961</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
@@ -3494,70 +3687,78 @@
         <v>1094</v>
       </c>
       <c r="K22" s="6">
+        <f t="shared" si="0"/>
+        <v>1357</v>
+      </c>
+      <c r="L22" s="6">
         <v>1581</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M22" s="6">
         <v>1567</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="6">
         <v>1733</v>
       </c>
-      <c r="N22" s="6">
+      <c r="O22" s="6">
         <v>1843</v>
       </c>
-      <c r="O22" s="6">
+      <c r="P22" s="6">
         <v>1735</v>
       </c>
-      <c r="P22" s="6">
+      <c r="Q22" s="6">
         <v>1405</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="R22" s="6">
         <v>1346</v>
       </c>
-      <c r="R22" s="6">
+      <c r="S22" s="6">
         <v>1248</v>
       </c>
-      <c r="S22" s="6">
+      <c r="T22" s="6">
         <v>1096</v>
       </c>
-      <c r="T22" s="6">
+      <c r="U22" s="6">
         <v>893</v>
       </c>
-      <c r="U22" s="6">
+      <c r="V22" s="6">
         <v>653</v>
       </c>
-      <c r="V22" s="6">
+      <c r="W22" s="6">
         <v>581</v>
       </c>
-      <c r="W22" s="6">
+      <c r="X22" s="6">
         <v>452</v>
       </c>
-      <c r="X22" s="6">
+      <c r="Y22" s="6">
         <v>366</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Z22" s="6">
         <v>271</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="AA22" s="6">
         <v>186</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AB22" s="6">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="AC22" s="6">
         <v>92</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AD22" s="6">
         <v>62</v>
       </c>
-      <c r="AC22" s="6">
+      <c r="AE22" s="6">
         <v>17</v>
       </c>
-      <c r="AD22" s="6">
+      <c r="AF22" s="6">
         <v>1</v>
       </c>
-      <c r="AE22" s="6">
+      <c r="AG22" s="6">
         <v>18485</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -3590,70 +3791,78 @@
         <v>96</v>
       </c>
       <c r="K23" s="6">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="L23" s="6">
         <v>125</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="6">
         <v>150</v>
       </c>
-      <c r="M23" s="6">
+      <c r="N23" s="6">
         <v>154</v>
       </c>
-      <c r="N23" s="6">
+      <c r="O23" s="6">
         <v>131</v>
       </c>
-      <c r="O23" s="6">
+      <c r="P23" s="6">
         <v>115</v>
       </c>
-      <c r="P23" s="6">
+      <c r="Q23" s="6">
         <v>81</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="R23" s="6">
         <v>98</v>
       </c>
-      <c r="R23" s="6">
+      <c r="S23" s="6">
         <v>88</v>
       </c>
-      <c r="S23" s="6">
+      <c r="T23" s="6">
         <v>94</v>
       </c>
-      <c r="T23" s="6">
+      <c r="U23" s="6">
         <v>109</v>
       </c>
-      <c r="U23" s="6">
+      <c r="V23" s="6">
         <v>77</v>
       </c>
-      <c r="V23" s="6">
+      <c r="W23" s="6">
         <v>86</v>
       </c>
-      <c r="W23" s="6">
+      <c r="X23" s="6">
         <v>74</v>
       </c>
-      <c r="X23" s="6">
+      <c r="Y23" s="6">
         <v>63</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>52</v>
       </c>
       <c r="Z23" s="6">
         <v>52</v>
       </c>
       <c r="AA23" s="6">
+        <v>52</v>
+      </c>
+      <c r="AB23" s="6">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="AC23" s="6">
         <v>25</v>
       </c>
-      <c r="AB23" s="6">
+      <c r="AD23" s="6">
         <v>5</v>
       </c>
-      <c r="AC23" s="6">
+      <c r="AE23" s="6">
         <v>6</v>
       </c>
-      <c r="AD23" s="6">
+      <c r="AF23" s="6">
         <v>2</v>
       </c>
-      <c r="AE23" s="6">
+      <c r="AG23" s="6">
         <v>1704</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -3685,71 +3894,79 @@
       <c r="J24" s="7">
         <v>6368</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
+        <f t="shared" si="0"/>
+        <v>7792</v>
+      </c>
+      <c r="L24" s="7">
         <v>8713</v>
       </c>
-      <c r="L24" s="7">
+      <c r="M24" s="7">
         <v>9901</v>
       </c>
-      <c r="M24" s="7">
+      <c r="N24" s="7">
         <v>9670</v>
       </c>
-      <c r="N24" s="7">
+      <c r="O24" s="7">
         <v>9636</v>
       </c>
-      <c r="O24" s="7">
+      <c r="P24" s="7">
         <v>8958</v>
       </c>
-      <c r="P24" s="7">
+      <c r="Q24" s="7">
         <v>8131</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="R24" s="7">
         <v>7801</v>
       </c>
-      <c r="R24" s="7">
+      <c r="S24" s="7">
         <v>7064</v>
       </c>
-      <c r="S24" s="7">
+      <c r="T24" s="7">
         <v>5784</v>
       </c>
-      <c r="T24" s="7">
+      <c r="U24" s="7">
         <v>4713</v>
       </c>
-      <c r="U24" s="7">
+      <c r="V24" s="7">
         <v>3722</v>
       </c>
-      <c r="V24" s="7">
+      <c r="W24" s="7">
         <v>2990</v>
       </c>
-      <c r="W24" s="7">
+      <c r="X24" s="7">
         <v>2197</v>
       </c>
-      <c r="X24" s="7">
+      <c r="Y24" s="7">
         <v>1413</v>
       </c>
-      <c r="Y24" s="7">
+      <c r="Z24" s="7">
         <v>837</v>
       </c>
-      <c r="Z24" s="7">
+      <c r="AA24" s="7">
         <v>565</v>
       </c>
-      <c r="AA24" s="7">
+      <c r="AB24" s="6">
+        <f t="shared" si="1"/>
+        <v>487</v>
+      </c>
+      <c r="AC24" s="7">
         <v>300</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AD24" s="7">
         <v>148</v>
       </c>
-      <c r="AC24" s="7">
+      <c r="AE24" s="7">
         <v>36</v>
       </c>
-      <c r="AD24" s="7">
+      <c r="AF24" s="7">
         <v>3</v>
       </c>
-      <c r="AE24" s="7">
+      <c r="AG24" s="7">
         <v>100374</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
@@ -3782,70 +3999,78 @@
         <v>225</v>
       </c>
       <c r="K25" s="6">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="L25" s="6">
         <v>328</v>
       </c>
-      <c r="L25" s="6">
+      <c r="M25" s="6">
         <v>396</v>
       </c>
-      <c r="M25" s="6">
+      <c r="N25" s="6">
         <v>440</v>
       </c>
-      <c r="N25" s="6">
+      <c r="O25" s="6">
         <v>356</v>
       </c>
-      <c r="O25" s="6">
+      <c r="P25" s="6">
         <v>401</v>
       </c>
-      <c r="P25" s="6">
+      <c r="Q25" s="6">
         <v>361</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="R25" s="6">
         <v>316</v>
       </c>
-      <c r="R25" s="6">
+      <c r="S25" s="6">
         <v>305</v>
       </c>
-      <c r="S25" s="6">
+      <c r="T25" s="6">
         <v>239</v>
       </c>
-      <c r="T25" s="6">
+      <c r="U25" s="6">
         <v>228</v>
       </c>
-      <c r="U25" s="6">
+      <c r="V25" s="6">
         <v>203</v>
       </c>
-      <c r="V25" s="6">
+      <c r="W25" s="6">
         <v>158</v>
       </c>
-      <c r="W25" s="6">
+      <c r="X25" s="6">
         <v>112</v>
       </c>
-      <c r="X25" s="6">
+      <c r="Y25" s="6">
         <v>79</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Z25" s="6">
         <v>51</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AA25" s="6">
         <v>31</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AB25" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AC25" s="6">
         <v>24</v>
       </c>
-      <c r="AB25" s="6">
+      <c r="AD25" s="6">
         <v>13</v>
       </c>
-      <c r="AC25" s="6">
+      <c r="AE25" s="6">
         <v>1</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AF25" s="6">
         <v>2</v>
       </c>
-      <c r="AE25" s="6">
+      <c r="AG25" s="6">
         <v>4336</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -3878,70 +4103,78 @@
         <v>1135</v>
       </c>
       <c r="K26" s="6">
+        <f t="shared" si="0"/>
+        <v>1426</v>
+      </c>
+      <c r="L26" s="6">
         <v>1547</v>
       </c>
-      <c r="L26" s="6">
+      <c r="M26" s="6">
         <v>1775</v>
       </c>
-      <c r="M26" s="6">
+      <c r="N26" s="6">
         <v>1819</v>
       </c>
-      <c r="N26" s="6">
+      <c r="O26" s="6">
         <v>1956</v>
       </c>
-      <c r="O26" s="6">
+      <c r="P26" s="6">
         <v>1840</v>
       </c>
-      <c r="P26" s="6">
+      <c r="Q26" s="6">
         <v>1563</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="R26" s="6">
         <v>1574</v>
       </c>
-      <c r="R26" s="6">
+      <c r="S26" s="6">
         <v>1393</v>
       </c>
-      <c r="S26" s="6">
+      <c r="T26" s="6">
         <v>1200</v>
       </c>
-      <c r="T26" s="6">
+      <c r="U26" s="6">
         <v>1036</v>
       </c>
-      <c r="U26" s="6">
+      <c r="V26" s="6">
         <v>871</v>
       </c>
-      <c r="V26" s="6">
+      <c r="W26" s="6">
         <v>703</v>
       </c>
-      <c r="W26" s="6">
+      <c r="X26" s="6">
         <v>618</v>
       </c>
-      <c r="X26" s="6">
+      <c r="Y26" s="6">
         <v>455</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Z26" s="6">
         <v>368</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AA26" s="6">
         <v>207</v>
       </c>
-      <c r="AA26" s="6">
+      <c r="AB26" s="6">
+        <f t="shared" si="1"/>
+        <v>233</v>
+      </c>
+      <c r="AC26" s="6">
         <v>124</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AD26" s="6">
         <v>75</v>
       </c>
-      <c r="AC26" s="6">
+      <c r="AE26" s="6">
         <v>32</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AF26" s="6">
         <v>2</v>
       </c>
-      <c r="AE26" s="6">
+      <c r="AG26" s="6">
         <v>20584</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" ht="23" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -3973,71 +4206,79 @@
       <c r="J27" s="7">
         <v>1688</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
+        <f t="shared" si="0"/>
+        <v>2123</v>
+      </c>
+      <c r="L27" s="7">
         <v>2329</v>
       </c>
-      <c r="L27" s="7">
+      <c r="M27" s="7">
         <v>2056</v>
       </c>
-      <c r="M27" s="7">
+      <c r="N27" s="7">
         <v>2232</v>
       </c>
-      <c r="N27" s="7">
+      <c r="O27" s="7">
         <v>2873</v>
       </c>
-      <c r="O27" s="7">
+      <c r="P27" s="7">
         <v>4703</v>
       </c>
-      <c r="P27" s="7">
+      <c r="Q27" s="7">
         <v>6485</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="R27" s="7">
         <v>6096</v>
       </c>
-      <c r="R27" s="7">
+      <c r="S27" s="7">
         <v>4644</v>
       </c>
-      <c r="S27" s="7">
+      <c r="T27" s="7">
         <v>3556</v>
       </c>
-      <c r="T27" s="7">
+      <c r="U27" s="7">
         <v>3074</v>
       </c>
-      <c r="U27" s="7">
+      <c r="V27" s="7">
         <v>3091</v>
       </c>
-      <c r="V27" s="7">
+      <c r="W27" s="7">
         <v>3228</v>
       </c>
-      <c r="W27" s="7">
+      <c r="X27" s="7">
         <v>2782</v>
       </c>
-      <c r="X27" s="7">
+      <c r="Y27" s="7">
         <v>2481</v>
       </c>
-      <c r="Y27" s="7">
+      <c r="Z27" s="7">
         <v>1801</v>
       </c>
-      <c r="Z27" s="7">
+      <c r="AA27" s="7">
         <v>1309</v>
       </c>
-      <c r="AA27" s="7">
+      <c r="AB27" s="6">
+        <f t="shared" si="1"/>
+        <v>1321</v>
+      </c>
+      <c r="AC27" s="7">
         <v>756</v>
       </c>
-      <c r="AB27" s="7">
+      <c r="AD27" s="7">
         <v>394</v>
       </c>
-      <c r="AC27" s="7">
+      <c r="AE27" s="7">
         <v>155</v>
       </c>
-      <c r="AD27" s="7">
+      <c r="AF27" s="7">
         <v>16</v>
       </c>
-      <c r="AE27" s="7">
+      <c r="AG27" s="7">
         <v>56184</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -4069,71 +4310,79 @@
       <c r="J28" s="7">
         <v>1035</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
+        <f t="shared" si="0"/>
+        <v>1267</v>
+      </c>
+      <c r="L28" s="7">
         <v>1691</v>
       </c>
-      <c r="L28" s="7">
+      <c r="M28" s="7">
         <v>1976</v>
       </c>
-      <c r="M28" s="7">
+      <c r="N28" s="7">
         <v>2206</v>
       </c>
-      <c r="N28" s="7">
+      <c r="O28" s="7">
         <v>2785</v>
       </c>
-      <c r="O28" s="7">
+      <c r="P28" s="7">
         <v>2853</v>
       </c>
-      <c r="P28" s="7">
+      <c r="Q28" s="7">
         <v>2830</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="R28" s="7">
         <v>2455</v>
       </c>
-      <c r="R28" s="7">
+      <c r="S28" s="7">
         <v>2175</v>
       </c>
-      <c r="S28" s="7">
+      <c r="T28" s="7">
         <v>1889</v>
       </c>
-      <c r="T28" s="7">
+      <c r="U28" s="7">
         <v>2001</v>
       </c>
-      <c r="U28" s="7">
+      <c r="V28" s="7">
         <v>1970</v>
       </c>
-      <c r="V28" s="7">
+      <c r="W28" s="7">
         <v>1867</v>
       </c>
-      <c r="W28" s="7">
+      <c r="X28" s="7">
         <v>1454</v>
       </c>
-      <c r="X28" s="7">
+      <c r="Y28" s="7">
         <v>1129</v>
       </c>
-      <c r="Y28" s="7">
+      <c r="Z28" s="7">
         <v>804</v>
       </c>
-      <c r="Z28" s="7">
+      <c r="AA28" s="7">
         <v>592</v>
       </c>
-      <c r="AA28" s="7">
+      <c r="AB28" s="6">
+        <f t="shared" si="1"/>
+        <v>666</v>
+      </c>
+      <c r="AC28" s="7">
         <v>393</v>
       </c>
-      <c r="AB28" s="7">
+      <c r="AD28" s="7">
         <v>200</v>
       </c>
-      <c r="AC28" s="7">
+      <c r="AE28" s="7">
         <v>62</v>
       </c>
-      <c r="AD28" s="7">
+      <c r="AF28" s="7">
         <v>11</v>
       </c>
-      <c r="AE28" s="7">
+      <c r="AG28" s="7">
         <v>32610</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" ht="23" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -4165,71 +4414,79 @@
       <c r="J29" s="7">
         <v>1185</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
+        <f t="shared" si="0"/>
+        <v>1459</v>
+      </c>
+      <c r="L29" s="7">
         <v>1926</v>
       </c>
-      <c r="L29" s="7">
+      <c r="M29" s="7">
         <v>2090</v>
       </c>
-      <c r="M29" s="7">
+      <c r="N29" s="7">
         <v>2254</v>
       </c>
-      <c r="N29" s="7">
+      <c r="O29" s="7">
         <v>2808</v>
       </c>
-      <c r="O29" s="7">
+      <c r="P29" s="7">
         <v>3142</v>
       </c>
-      <c r="P29" s="7">
+      <c r="Q29" s="7">
         <v>3470</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="R29" s="7">
         <v>3308</v>
       </c>
-      <c r="R29" s="7">
+      <c r="S29" s="7">
         <v>2799</v>
       </c>
-      <c r="S29" s="7">
+      <c r="T29" s="7">
         <v>2381</v>
       </c>
-      <c r="T29" s="7">
+      <c r="U29" s="7">
         <v>2153</v>
       </c>
-      <c r="U29" s="7">
+      <c r="V29" s="7">
         <v>2090</v>
       </c>
-      <c r="V29" s="7">
+      <c r="W29" s="7">
         <v>2043</v>
       </c>
-      <c r="W29" s="7">
+      <c r="X29" s="7">
         <v>1804</v>
       </c>
-      <c r="X29" s="7">
+      <c r="Y29" s="7">
         <v>1408</v>
       </c>
-      <c r="Y29" s="7">
+      <c r="Z29" s="7">
         <v>963</v>
       </c>
-      <c r="Z29" s="7">
+      <c r="AA29" s="7">
         <v>707</v>
       </c>
-      <c r="AA29" s="7">
+      <c r="AB29" s="6">
+        <f t="shared" si="1"/>
+        <v>686</v>
+      </c>
+      <c r="AC29" s="7">
         <v>401</v>
       </c>
-      <c r="AB29" s="7">
+      <c r="AD29" s="7">
         <v>192</v>
       </c>
-      <c r="AC29" s="7">
+      <c r="AE29" s="7">
         <v>78</v>
       </c>
-      <c r="AD29" s="7">
+      <c r="AF29" s="7">
         <v>15</v>
       </c>
-      <c r="AE29" s="7">
+      <c r="AG29" s="7">
         <v>37491</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" ht="23" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -4261,71 +4518,79 @@
       <c r="J30" s="7">
         <v>2083</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="6">
+        <f t="shared" si="0"/>
+        <v>2477</v>
+      </c>
+      <c r="L30" s="7">
         <v>3221</v>
       </c>
-      <c r="L30" s="7">
+      <c r="M30" s="7">
         <v>3705</v>
       </c>
-      <c r="M30" s="7">
+      <c r="N30" s="7">
         <v>3971</v>
       </c>
-      <c r="N30" s="7">
+      <c r="O30" s="7">
         <v>4664</v>
       </c>
-      <c r="O30" s="7">
+      <c r="P30" s="7">
         <v>5146</v>
       </c>
-      <c r="P30" s="7">
+      <c r="Q30" s="7">
         <v>5250</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="R30" s="7">
         <v>4871</v>
       </c>
-      <c r="R30" s="7">
+      <c r="S30" s="7">
         <v>4692</v>
       </c>
-      <c r="S30" s="7">
+      <c r="T30" s="7">
         <v>4081</v>
       </c>
-      <c r="T30" s="7">
+      <c r="U30" s="7">
         <v>3899</v>
       </c>
-      <c r="U30" s="7">
+      <c r="V30" s="7">
         <v>3634</v>
       </c>
-      <c r="V30" s="7">
+      <c r="W30" s="7">
         <v>3295</v>
       </c>
-      <c r="W30" s="7">
+      <c r="X30" s="7">
         <v>2917</v>
       </c>
-      <c r="X30" s="7">
+      <c r="Y30" s="7">
         <v>2490</v>
       </c>
-      <c r="Y30" s="7">
+      <c r="Z30" s="7">
         <v>1993</v>
       </c>
-      <c r="Z30" s="7">
+      <c r="AA30" s="7">
         <v>1407</v>
       </c>
-      <c r="AA30" s="7">
+      <c r="AB30" s="6">
+        <f t="shared" si="1"/>
+        <v>1296</v>
+      </c>
+      <c r="AC30" s="7">
         <v>779</v>
       </c>
-      <c r="AB30" s="7">
+      <c r="AD30" s="7">
         <v>395</v>
       </c>
-      <c r="AC30" s="7">
+      <c r="AE30" s="7">
         <v>102</v>
       </c>
-      <c r="AD30" s="7">
+      <c r="AF30" s="7">
         <v>20</v>
       </c>
-      <c r="AE30" s="7">
+      <c r="AG30" s="7">
         <v>63009</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -4357,71 +4622,79 @@
       <c r="J31" s="7">
         <v>3509</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
+        <f t="shared" si="0"/>
+        <v>4234</v>
+      </c>
+      <c r="L31" s="7">
         <v>5090</v>
       </c>
-      <c r="L31" s="7">
+      <c r="M31" s="7">
         <v>5647</v>
       </c>
-      <c r="M31" s="7">
+      <c r="N31" s="7">
         <v>5655</v>
       </c>
-      <c r="N31" s="7">
+      <c r="O31" s="7">
         <v>5407</v>
       </c>
-      <c r="O31" s="7">
+      <c r="P31" s="7">
         <v>5289</v>
       </c>
-      <c r="P31" s="7">
+      <c r="Q31" s="7">
         <v>4957</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="R31" s="7">
         <v>4822</v>
       </c>
-      <c r="R31" s="7">
+      <c r="S31" s="7">
         <v>4520</v>
       </c>
-      <c r="S31" s="7">
+      <c r="T31" s="7">
         <v>3517</v>
       </c>
-      <c r="T31" s="7">
+      <c r="U31" s="7">
         <v>2981</v>
       </c>
-      <c r="U31" s="7">
+      <c r="V31" s="7">
         <v>2422</v>
       </c>
-      <c r="V31" s="7">
+      <c r="W31" s="7">
         <v>2086</v>
       </c>
-      <c r="W31" s="7">
+      <c r="X31" s="7">
         <v>1656</v>
       </c>
-      <c r="X31" s="7">
+      <c r="Y31" s="7">
         <v>1215</v>
       </c>
-      <c r="Y31" s="7">
+      <c r="Z31" s="7">
         <v>847</v>
       </c>
-      <c r="Z31" s="7">
+      <c r="AA31" s="7">
         <v>559</v>
       </c>
-      <c r="AA31" s="7">
+      <c r="AB31" s="6">
+        <f t="shared" si="1"/>
+        <v>463</v>
+      </c>
+      <c r="AC31" s="7">
         <v>285</v>
       </c>
-      <c r="AB31" s="7">
+      <c r="AD31" s="7">
         <v>137</v>
       </c>
-      <c r="AC31" s="7">
+      <c r="AE31" s="7">
         <v>40</v>
       </c>
-      <c r="AD31" s="7">
+      <c r="AF31" s="7">
         <v>1</v>
       </c>
-      <c r="AE31" s="7">
+      <c r="AG31" s="7">
         <v>61367</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -4453,71 +4726,79 @@
       <c r="J32" s="7">
         <v>4197</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
+        <f t="shared" si="0"/>
+        <v>5179</v>
+      </c>
+      <c r="L32" s="7">
         <v>6309</v>
       </c>
-      <c r="L32" s="7">
+      <c r="M32" s="7">
         <v>6999</v>
       </c>
-      <c r="M32" s="7">
+      <c r="N32" s="7">
         <v>6935</v>
       </c>
-      <c r="N32" s="7">
+      <c r="O32" s="7">
         <v>6866</v>
       </c>
-      <c r="O32" s="7">
+      <c r="P32" s="7">
         <v>6544</v>
       </c>
-      <c r="P32" s="7">
+      <c r="Q32" s="7">
         <v>5995</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="R32" s="7">
         <v>5938</v>
       </c>
-      <c r="R32" s="7">
+      <c r="S32" s="7">
         <v>5250</v>
       </c>
-      <c r="S32" s="7">
+      <c r="T32" s="7">
         <v>4259</v>
       </c>
-      <c r="T32" s="7">
+      <c r="U32" s="7">
         <v>3581</v>
       </c>
-      <c r="U32" s="7">
+      <c r="V32" s="7">
         <v>3106</v>
       </c>
-      <c r="V32" s="7">
+      <c r="W32" s="7">
         <v>2631</v>
       </c>
-      <c r="W32" s="7">
+      <c r="X32" s="7">
         <v>2009</v>
       </c>
-      <c r="X32" s="7">
+      <c r="Y32" s="7">
         <v>1403</v>
       </c>
-      <c r="Y32" s="7">
+      <c r="Z32" s="7">
         <v>896</v>
       </c>
-      <c r="Z32" s="7">
+      <c r="AA32" s="7">
         <v>517</v>
       </c>
-      <c r="AA32" s="7">
+      <c r="AB32" s="6">
+        <f t="shared" si="1"/>
+        <v>542</v>
+      </c>
+      <c r="AC32" s="7">
         <v>303</v>
       </c>
-      <c r="AB32" s="7">
+      <c r="AD32" s="7">
         <v>169</v>
       </c>
-      <c r="AC32" s="7">
+      <c r="AE32" s="7">
         <v>63</v>
       </c>
-      <c r="AD32" s="7">
+      <c r="AF32" s="7">
         <v>7</v>
       </c>
-      <c r="AE32" s="7">
+      <c r="AG32" s="7">
         <v>74959</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
@@ -4549,71 +4830,79 @@
       <c r="J33" s="7">
         <v>3217</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
+        <f t="shared" si="0"/>
+        <v>3887</v>
+      </c>
+      <c r="L33" s="7">
         <v>4606</v>
       </c>
-      <c r="L33" s="7">
+      <c r="M33" s="7">
         <v>5443</v>
       </c>
-      <c r="M33" s="7">
+      <c r="N33" s="7">
         <v>5282</v>
       </c>
-      <c r="N33" s="7">
+      <c r="O33" s="7">
         <v>5426</v>
       </c>
-      <c r="O33" s="7">
+      <c r="P33" s="7">
         <v>5251</v>
       </c>
-      <c r="P33" s="7">
+      <c r="Q33" s="7">
         <v>4754</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="R33" s="7">
         <v>4475</v>
       </c>
-      <c r="R33" s="7">
+      <c r="S33" s="7">
         <v>4193</v>
       </c>
-      <c r="S33" s="7">
+      <c r="T33" s="7">
         <v>3792</v>
       </c>
-      <c r="T33" s="7">
+      <c r="U33" s="7">
         <v>3383</v>
       </c>
-      <c r="U33" s="7">
+      <c r="V33" s="7">
         <v>3115</v>
       </c>
-      <c r="V33" s="7">
+      <c r="W33" s="7">
         <v>2529</v>
       </c>
-      <c r="W33" s="7">
+      <c r="X33" s="7">
         <v>2108</v>
       </c>
-      <c r="X33" s="7">
+      <c r="Y33" s="7">
         <v>1387</v>
       </c>
-      <c r="Y33" s="7">
+      <c r="Z33" s="7">
         <v>980</v>
       </c>
-      <c r="Z33" s="7">
+      <c r="AA33" s="7">
         <v>733</v>
       </c>
-      <c r="AA33" s="7">
+      <c r="AB33" s="6">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
+      <c r="AC33" s="7">
         <v>444</v>
       </c>
-      <c r="AB33" s="7">
+      <c r="AD33" s="7">
         <v>228</v>
       </c>
-      <c r="AC33" s="7">
+      <c r="AE33" s="7">
         <v>68</v>
       </c>
-      <c r="AD33" s="7">
+      <c r="AF33" s="7">
         <v>11</v>
       </c>
-      <c r="AE33" s="7">
+      <c r="AG33" s="7">
         <v>62095</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -4645,71 +4934,79 @@
       <c r="J34" s="7">
         <v>1293</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
+        <f t="shared" si="0"/>
+        <v>1579</v>
+      </c>
+      <c r="L34" s="7">
         <v>1787</v>
       </c>
-      <c r="L34" s="7">
+      <c r="M34" s="7">
         <v>2023</v>
       </c>
-      <c r="M34" s="7">
+      <c r="N34" s="7">
         <v>2099</v>
       </c>
-      <c r="N34" s="7">
+      <c r="O34" s="7">
         <v>1973</v>
       </c>
-      <c r="O34" s="7">
+      <c r="P34" s="7">
         <v>1856</v>
       </c>
-      <c r="P34" s="7">
+      <c r="Q34" s="7">
         <v>1826</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="R34" s="7">
         <v>1664</v>
       </c>
-      <c r="R34" s="7">
+      <c r="S34" s="7">
         <v>1545</v>
       </c>
-      <c r="S34" s="7">
+      <c r="T34" s="7">
         <v>1187</v>
       </c>
-      <c r="T34" s="7">
+      <c r="U34" s="7">
         <v>1226</v>
       </c>
-      <c r="U34" s="7">
+      <c r="V34" s="7">
         <v>1136</v>
       </c>
-      <c r="V34" s="7">
+      <c r="W34" s="7">
         <v>964</v>
       </c>
-      <c r="W34" s="7">
+      <c r="X34" s="7">
         <v>763</v>
       </c>
-      <c r="X34" s="7">
+      <c r="Y34" s="7">
         <v>603</v>
       </c>
-      <c r="Y34" s="7">
+      <c r="Z34" s="7">
         <v>450</v>
       </c>
-      <c r="Z34" s="7">
+      <c r="AA34" s="7">
         <v>282</v>
       </c>
-      <c r="AA34" s="7">
+      <c r="AB34" s="6">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="AC34" s="7">
         <v>167</v>
       </c>
-      <c r="AB34" s="7">
+      <c r="AD34" s="7">
         <v>63</v>
       </c>
-      <c r="AC34" s="7">
+      <c r="AE34" s="7">
         <v>28</v>
       </c>
-      <c r="AD34" s="7">
+      <c r="AF34" s="7">
         <v>3</v>
       </c>
-      <c r="AE34" s="7">
+      <c r="AG34" s="7">
         <v>23224</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
@@ -4741,71 +5038,79 @@
       <c r="J35" s="7">
         <v>1020</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
+        <f t="shared" si="0"/>
+        <v>1202</v>
+      </c>
+      <c r="L35" s="7">
         <v>1557</v>
       </c>
-      <c r="L35" s="7">
+      <c r="M35" s="7">
         <v>1839</v>
       </c>
-      <c r="M35" s="7">
+      <c r="N35" s="7">
         <v>1911</v>
       </c>
-      <c r="N35" s="7">
+      <c r="O35" s="7">
         <v>2058</v>
       </c>
-      <c r="O35" s="7">
+      <c r="P35" s="7">
         <v>2274</v>
       </c>
-      <c r="P35" s="7">
+      <c r="Q35" s="7">
         <v>2203</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="R35" s="7">
         <v>2009</v>
       </c>
-      <c r="R35" s="7">
+      <c r="S35" s="7">
         <v>1835</v>
       </c>
-      <c r="S35" s="7">
+      <c r="T35" s="7">
         <v>1621</v>
       </c>
-      <c r="T35" s="7">
+      <c r="U35" s="7">
         <v>1725</v>
       </c>
-      <c r="U35" s="7">
+      <c r="V35" s="7">
         <v>1681</v>
       </c>
-      <c r="V35" s="7">
+      <c r="W35" s="7">
         <v>1396</v>
       </c>
-      <c r="W35" s="7">
+      <c r="X35" s="7">
         <v>1142</v>
       </c>
-      <c r="X35" s="7">
+      <c r="Y35" s="7">
         <v>844</v>
       </c>
-      <c r="Y35" s="7">
+      <c r="Z35" s="7">
         <v>670</v>
       </c>
-      <c r="Z35" s="7">
+      <c r="AA35" s="7">
         <v>527</v>
       </c>
-      <c r="AA35" s="7">
+      <c r="AB35" s="6">
+        <f t="shared" si="1"/>
+        <v>598</v>
+      </c>
+      <c r="AC35" s="7">
         <v>345</v>
       </c>
-      <c r="AB35" s="7">
+      <c r="AD35" s="7">
         <v>153</v>
       </c>
-      <c r="AC35" s="7">
+      <c r="AE35" s="7">
         <v>57</v>
       </c>
-      <c r="AD35" s="7">
+      <c r="AF35" s="7">
         <v>43</v>
       </c>
-      <c r="AE35" s="7">
+      <c r="AG35" s="7">
         <v>27092</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -4837,71 +5142,79 @@
       <c r="J36" s="7">
         <v>2358</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="6">
+        <f t="shared" si="0"/>
+        <v>2831</v>
+      </c>
+      <c r="L36" s="7">
         <v>3596</v>
       </c>
-      <c r="L36" s="7">
+      <c r="M36" s="7">
         <v>3949</v>
       </c>
-      <c r="M36" s="7">
+      <c r="N36" s="7">
         <v>4091</v>
       </c>
-      <c r="N36" s="7">
+      <c r="O36" s="7">
         <v>4249</v>
       </c>
-      <c r="O36" s="7">
+      <c r="P36" s="7">
         <v>4023</v>
       </c>
-      <c r="P36" s="7">
+      <c r="Q36" s="7">
         <v>3640</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="R36" s="7">
         <v>3538</v>
       </c>
-      <c r="R36" s="7">
+      <c r="S36" s="7">
         <v>3345</v>
       </c>
-      <c r="S36" s="7">
+      <c r="T36" s="7">
         <v>2944</v>
       </c>
-      <c r="T36" s="7">
+      <c r="U36" s="7">
         <v>2698</v>
       </c>
-      <c r="U36" s="7">
+      <c r="V36" s="7">
         <v>2390</v>
       </c>
-      <c r="V36" s="7">
+      <c r="W36" s="7">
         <v>1985</v>
       </c>
-      <c r="W36" s="7">
+      <c r="X36" s="7">
         <v>1451</v>
       </c>
-      <c r="X36" s="7">
+      <c r="Y36" s="7">
         <v>1144</v>
       </c>
-      <c r="Y36" s="7">
+      <c r="Z36" s="7">
         <v>824</v>
       </c>
-      <c r="Z36" s="7">
+      <c r="AA36" s="7">
         <v>523</v>
       </c>
-      <c r="AA36" s="7">
+      <c r="AB36" s="6">
+        <f t="shared" si="1"/>
+        <v>474</v>
+      </c>
+      <c r="AC36" s="7">
         <v>303</v>
       </c>
-      <c r="AB36" s="7">
+      <c r="AD36" s="7">
         <v>122</v>
       </c>
-      <c r="AC36" s="7">
+      <c r="AE36" s="7">
         <v>45</v>
       </c>
-      <c r="AD36" s="7">
+      <c r="AF36" s="7">
         <v>4</v>
       </c>
-      <c r="AE36" s="7">
+      <c r="AG36" s="7">
         <v>47695</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>30</v>
       </c>
@@ -4934,70 +5247,78 @@
         <v>639</v>
       </c>
       <c r="K37" s="6">
+        <f t="shared" si="0"/>
+        <v>774</v>
+      </c>
+      <c r="L37" s="6">
         <v>821</v>
       </c>
-      <c r="L37" s="6">
+      <c r="M37" s="6">
         <v>1057</v>
       </c>
-      <c r="M37" s="6">
+      <c r="N37" s="6">
         <v>1060</v>
       </c>
-      <c r="N37" s="6">
+      <c r="O37" s="6">
         <v>974</v>
       </c>
-      <c r="O37" s="6">
+      <c r="P37" s="6">
         <v>983</v>
       </c>
-      <c r="P37" s="6">
+      <c r="Q37" s="6">
         <v>891</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="R37" s="6">
         <v>931</v>
       </c>
-      <c r="R37" s="6">
+      <c r="S37" s="6">
         <v>831</v>
       </c>
-      <c r="S37" s="6">
+      <c r="T37" s="6">
         <v>665</v>
       </c>
-      <c r="T37" s="6">
+      <c r="U37" s="6">
         <v>544</v>
       </c>
-      <c r="U37" s="6">
+      <c r="V37" s="6">
         <v>487</v>
       </c>
-      <c r="V37" s="6">
+      <c r="W37" s="6">
         <v>397</v>
       </c>
-      <c r="W37" s="6">
+      <c r="X37" s="6">
         <v>375</v>
       </c>
-      <c r="X37" s="6">
+      <c r="Y37" s="6">
         <v>254</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="Z37" s="6">
         <v>172</v>
       </c>
-      <c r="Z37" s="6">
+      <c r="AA37" s="6">
         <v>119</v>
       </c>
-      <c r="AA37" s="6">
+      <c r="AB37" s="6">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="AC37" s="6">
         <v>55</v>
       </c>
-      <c r="AB37" s="6">
+      <c r="AD37" s="6">
         <v>35</v>
       </c>
-      <c r="AC37" s="6">
+      <c r="AE37" s="6">
         <v>11</v>
       </c>
-      <c r="AD37" s="6">
+      <c r="AF37" s="6">
         <v>2</v>
       </c>
-      <c r="AE37" s="6">
+      <c r="AG37" s="6">
         <v>11438</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
@@ -5030,70 +5351,78 @@
         <v>816</v>
       </c>
       <c r="K38" s="6">
+        <f t="shared" si="0"/>
+        <v>966</v>
+      </c>
+      <c r="L38" s="6">
         <v>1279</v>
       </c>
-      <c r="L38" s="6">
+      <c r="M38" s="6">
         <v>1433</v>
       </c>
-      <c r="M38" s="6">
+      <c r="N38" s="6">
         <v>1409</v>
       </c>
-      <c r="N38" s="6">
+      <c r="O38" s="6">
         <v>1256</v>
       </c>
-      <c r="O38" s="6">
+      <c r="P38" s="6">
         <v>1288</v>
       </c>
-      <c r="P38" s="6">
+      <c r="Q38" s="6">
         <v>1253</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="R38" s="6">
         <v>1248</v>
       </c>
-      <c r="R38" s="6">
+      <c r="S38" s="6">
         <v>1176</v>
       </c>
-      <c r="S38" s="6">
+      <c r="T38" s="6">
         <v>904</v>
       </c>
-      <c r="T38" s="6">
+      <c r="U38" s="6">
         <v>791</v>
       </c>
-      <c r="U38" s="6">
+      <c r="V38" s="6">
         <v>638</v>
       </c>
-      <c r="V38" s="6">
+      <c r="W38" s="6">
         <v>497</v>
       </c>
-      <c r="W38" s="6">
+      <c r="X38" s="6">
         <v>301</v>
       </c>
-      <c r="X38" s="6">
+      <c r="Y38" s="6">
         <v>251</v>
       </c>
-      <c r="Y38" s="6">
+      <c r="Z38" s="6">
         <v>174</v>
       </c>
-      <c r="Z38" s="6">
+      <c r="AA38" s="6">
         <v>127</v>
       </c>
-      <c r="AA38" s="6">
+      <c r="AB38" s="6">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="AC38" s="6">
         <v>66</v>
       </c>
-      <c r="AB38" s="6">
+      <c r="AD38" s="6">
         <v>38</v>
       </c>
-      <c r="AC38" s="6">
+      <c r="AE38" s="6">
         <v>15</v>
       </c>
-      <c r="AD38" s="6">
+      <c r="AF38" s="6">
         <v>3</v>
       </c>
-      <c r="AE38" s="6">
+      <c r="AG38" s="6">
         <v>15113</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
@@ -5126,70 +5455,78 @@
         <v>124</v>
       </c>
       <c r="K39" s="6">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="L39" s="6">
         <v>150</v>
       </c>
       <c r="M39" s="6">
+        <v>150</v>
+      </c>
+      <c r="N39" s="6">
         <v>178</v>
       </c>
-      <c r="N39" s="6">
+      <c r="O39" s="6">
         <v>154</v>
       </c>
-      <c r="O39" s="6">
+      <c r="P39" s="6">
         <v>186</v>
       </c>
-      <c r="P39" s="6">
+      <c r="Q39" s="6">
         <v>130</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="R39" s="6">
         <v>115</v>
       </c>
-      <c r="R39" s="6">
+      <c r="S39" s="6">
         <v>116</v>
       </c>
-      <c r="S39" s="6">
+      <c r="T39" s="6">
         <v>98</v>
       </c>
-      <c r="T39" s="6">
+      <c r="U39" s="6">
         <v>117</v>
       </c>
-      <c r="U39" s="6">
+      <c r="V39" s="6">
         <v>90</v>
       </c>
-      <c r="V39" s="6">
+      <c r="W39" s="6">
         <v>85</v>
       </c>
-      <c r="W39" s="6">
+      <c r="X39" s="6">
         <v>77</v>
       </c>
-      <c r="X39" s="6">
+      <c r="Y39" s="6">
         <v>48</v>
       </c>
-      <c r="Y39" s="6">
+      <c r="Z39" s="6">
         <v>35</v>
       </c>
-      <c r="Z39" s="6">
+      <c r="AA39" s="6">
         <v>27</v>
       </c>
-      <c r="AA39" s="6">
+      <c r="AB39" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="AC39" s="6">
         <v>26</v>
       </c>
-      <c r="AB39" s="6">
+      <c r="AD39" s="6">
         <v>14</v>
       </c>
-      <c r="AC39" s="6">
+      <c r="AE39" s="6">
         <v>3</v>
       </c>
-      <c r="AD39" s="6" t="s">
+      <c r="AF39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AE39" s="6">
+      <c r="AG39" s="6">
         <v>1959</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>30</v>
       </c>
@@ -5221,71 +5558,79 @@
       <c r="J40" s="7">
         <v>391</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="6">
+        <f t="shared" si="0"/>
+        <v>488</v>
+      </c>
+      <c r="L40" s="7">
         <v>604</v>
       </c>
-      <c r="L40" s="7">
+      <c r="M40" s="7">
         <v>583</v>
       </c>
-      <c r="M40" s="7">
+      <c r="N40" s="7">
         <v>708</v>
       </c>
-      <c r="N40" s="7">
+      <c r="O40" s="7">
         <v>1214</v>
       </c>
-      <c r="O40" s="7">
+      <c r="P40" s="7">
         <v>1361</v>
       </c>
-      <c r="P40" s="7">
+      <c r="Q40" s="7">
         <v>1736</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="R40" s="7">
         <v>1445</v>
       </c>
-      <c r="R40" s="7">
+      <c r="S40" s="7">
         <v>1088</v>
       </c>
-      <c r="S40" s="7">
+      <c r="T40" s="7">
         <v>935</v>
       </c>
-      <c r="T40" s="7">
+      <c r="U40" s="7">
         <v>871</v>
       </c>
-      <c r="U40" s="7">
+      <c r="V40" s="7">
         <v>848</v>
       </c>
-      <c r="V40" s="7">
+      <c r="W40" s="7">
         <v>799</v>
       </c>
-      <c r="W40" s="7">
+      <c r="X40" s="7">
         <v>757</v>
       </c>
-      <c r="X40" s="7">
+      <c r="Y40" s="7">
         <v>579</v>
       </c>
-      <c r="Y40" s="7">
+      <c r="Z40" s="7">
         <v>418</v>
       </c>
-      <c r="Z40" s="7">
+      <c r="AA40" s="7">
         <v>299</v>
       </c>
-      <c r="AA40" s="7">
+      <c r="AB40" s="6">
+        <f t="shared" si="1"/>
+        <v>339</v>
+      </c>
+      <c r="AC40" s="7">
         <v>184</v>
       </c>
-      <c r="AB40" s="7">
+      <c r="AD40" s="7">
         <v>101</v>
       </c>
-      <c r="AC40" s="7">
+      <c r="AE40" s="7">
         <v>37</v>
       </c>
-      <c r="AD40" s="7">
+      <c r="AF40" s="7">
         <v>17</v>
       </c>
-      <c r="AE40" s="7">
+      <c r="AG40" s="7">
         <v>15072</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>30</v>
       </c>
@@ -5318,70 +5663,78 @@
         <v>171</v>
       </c>
       <c r="K41" s="6">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="L41" s="6">
         <v>232</v>
       </c>
-      <c r="L41" s="6">
+      <c r="M41" s="6">
         <v>245</v>
       </c>
-      <c r="M41" s="6">
+      <c r="N41" s="6">
         <v>252</v>
       </c>
-      <c r="N41" s="6">
+      <c r="O41" s="6">
         <v>227</v>
       </c>
-      <c r="O41" s="6">
+      <c r="P41" s="6">
         <v>195</v>
       </c>
-      <c r="P41" s="6">
+      <c r="Q41" s="6">
         <v>232</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="R41" s="6">
         <v>219</v>
       </c>
-      <c r="R41" s="6">
+      <c r="S41" s="6">
         <v>144</v>
       </c>
-      <c r="S41" s="6">
+      <c r="T41" s="6">
         <v>131</v>
       </c>
-      <c r="T41" s="6">
+      <c r="U41" s="6">
         <v>160</v>
       </c>
-      <c r="U41" s="6">
+      <c r="V41" s="6">
         <v>135</v>
       </c>
-      <c r="V41" s="6">
+      <c r="W41" s="6">
         <v>119</v>
       </c>
-      <c r="W41" s="6">
+      <c r="X41" s="6">
         <v>134</v>
       </c>
-      <c r="X41" s="6">
+      <c r="Y41" s="6">
         <v>96</v>
       </c>
-      <c r="Y41" s="6">
+      <c r="Z41" s="6">
         <v>99</v>
       </c>
-      <c r="Z41" s="6">
+      <c r="AA41" s="6">
         <v>51</v>
       </c>
-      <c r="AA41" s="6">
+      <c r="AB41" s="6">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="AC41" s="6">
         <v>47</v>
       </c>
-      <c r="AB41" s="6">
+      <c r="AD41" s="6">
         <v>24</v>
       </c>
-      <c r="AC41" s="6">
+      <c r="AE41" s="6">
         <v>5</v>
       </c>
-      <c r="AD41" s="6">
+      <c r="AF41" s="6">
         <v>1</v>
       </c>
-      <c r="AE41" s="6">
+      <c r="AG41" s="6">
         <v>2959</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
@@ -5414,70 +5767,78 @@
         <v>150</v>
       </c>
       <c r="K42" s="6">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="L42" s="6">
         <v>238</v>
       </c>
-      <c r="L42" s="6">
+      <c r="M42" s="6">
         <v>221</v>
       </c>
-      <c r="M42" s="6">
+      <c r="N42" s="6">
         <v>255</v>
       </c>
-      <c r="N42" s="6">
+      <c r="O42" s="6">
         <v>217</v>
       </c>
-      <c r="O42" s="6">
+      <c r="P42" s="6">
         <v>265</v>
       </c>
-      <c r="P42" s="6">
+      <c r="Q42" s="6">
         <v>191</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="R42" s="6">
         <v>170</v>
-      </c>
-      <c r="R42" s="6">
-        <v>162</v>
       </c>
       <c r="S42" s="6">
         <v>162</v>
       </c>
       <c r="T42" s="6">
+        <v>162</v>
+      </c>
+      <c r="U42" s="6">
         <v>160</v>
       </c>
-      <c r="U42" s="6">
+      <c r="V42" s="6">
         <v>113</v>
       </c>
-      <c r="V42" s="6">
+      <c r="W42" s="6">
         <v>98</v>
       </c>
-      <c r="W42" s="6">
+      <c r="X42" s="6">
         <v>96</v>
       </c>
-      <c r="X42" s="6">
+      <c r="Y42" s="6">
         <v>76</v>
       </c>
-      <c r="Y42" s="6">
+      <c r="Z42" s="6">
         <v>74</v>
       </c>
-      <c r="Z42" s="6">
+      <c r="AA42" s="6">
         <v>44</v>
       </c>
-      <c r="AA42" s="6">
+      <c r="AB42" s="6">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="AC42" s="6">
         <v>24</v>
       </c>
-      <c r="AB42" s="6">
+      <c r="AD42" s="6">
         <v>15</v>
       </c>
-      <c r="AC42" s="6">
+      <c r="AE42" s="6">
         <v>1</v>
       </c>
-      <c r="AD42" s="6">
+      <c r="AF42" s="6">
         <v>4</v>
       </c>
-      <c r="AE42" s="6">
+      <c r="AG42" s="6">
         <v>2776</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" ht="23" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>30</v>
       </c>
@@ -5510,70 +5871,78 @@
         <v>878</v>
       </c>
       <c r="K43" s="6">
+        <f t="shared" si="0"/>
+        <v>1088</v>
+      </c>
+      <c r="L43" s="6">
         <v>1522</v>
       </c>
-      <c r="L43" s="6">
+      <c r="M43" s="6">
         <v>1769</v>
       </c>
-      <c r="M43" s="6">
+      <c r="N43" s="6">
         <v>1758</v>
       </c>
-      <c r="N43" s="6">
+      <c r="O43" s="6">
         <v>1712</v>
       </c>
-      <c r="O43" s="6">
+      <c r="P43" s="6">
         <v>1547</v>
       </c>
-      <c r="P43" s="6">
+      <c r="Q43" s="6">
         <v>1457</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="R43" s="6">
         <v>1630</v>
       </c>
-      <c r="R43" s="6">
+      <c r="S43" s="6">
         <v>1652</v>
       </c>
-      <c r="S43" s="6">
+      <c r="T43" s="6">
         <v>1571</v>
       </c>
-      <c r="T43" s="6">
+      <c r="U43" s="6">
         <v>1456</v>
       </c>
-      <c r="U43" s="6">
+      <c r="V43" s="6">
         <v>1346</v>
       </c>
-      <c r="V43" s="6">
+      <c r="W43" s="6">
         <v>994</v>
       </c>
-      <c r="W43" s="6">
+      <c r="X43" s="6">
         <v>897</v>
       </c>
-      <c r="X43" s="6">
+      <c r="Y43" s="6">
         <v>633</v>
       </c>
-      <c r="Y43" s="6">
+      <c r="Z43" s="6">
         <v>519</v>
       </c>
-      <c r="Z43" s="6">
+      <c r="AA43" s="6">
         <v>271</v>
       </c>
-      <c r="AA43" s="6">
+      <c r="AB43" s="6">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="AC43" s="6">
         <v>144</v>
       </c>
-      <c r="AB43" s="6">
+      <c r="AD43" s="6">
         <v>72</v>
       </c>
-      <c r="AC43" s="6">
+      <c r="AE43" s="6">
         <v>23</v>
       </c>
-      <c r="AD43" s="6">
+      <c r="AF43" s="6">
         <v>4</v>
       </c>
-      <c r="AE43" s="6">
+      <c r="AG43" s="6">
         <v>22065</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>30</v>
       </c>
@@ -5606,70 +5975,78 @@
         <v>158</v>
       </c>
       <c r="K44" s="6">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="L44" s="6">
         <v>265</v>
       </c>
-      <c r="L44" s="6">
+      <c r="M44" s="6">
         <v>268</v>
       </c>
-      <c r="M44" s="6">
+      <c r="N44" s="6">
         <v>298</v>
       </c>
-      <c r="N44" s="6">
+      <c r="O44" s="6">
         <v>278</v>
       </c>
-      <c r="O44" s="6">
+      <c r="P44" s="6">
         <v>184</v>
       </c>
-      <c r="P44" s="6">
+      <c r="Q44" s="6">
         <v>189</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="R44" s="6">
         <v>244</v>
       </c>
-      <c r="R44" s="6">
+      <c r="S44" s="6">
         <v>203</v>
       </c>
-      <c r="S44" s="6">
+      <c r="T44" s="6">
         <v>163</v>
       </c>
-      <c r="T44" s="6">
+      <c r="U44" s="6">
         <v>140</v>
       </c>
-      <c r="U44" s="6">
+      <c r="V44" s="6">
         <v>127</v>
       </c>
-      <c r="V44" s="6">
+      <c r="W44" s="6">
         <v>88</v>
       </c>
-      <c r="W44" s="6">
+      <c r="X44" s="6">
         <v>79</v>
       </c>
-      <c r="X44" s="6">
+      <c r="Y44" s="6">
         <v>72</v>
       </c>
-      <c r="Y44" s="6">
+      <c r="Z44" s="6">
         <v>51</v>
       </c>
-      <c r="Z44" s="6">
+      <c r="AA44" s="6">
         <v>37</v>
       </c>
-      <c r="AA44" s="6">
+      <c r="AB44" s="6">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="AC44" s="6">
         <v>32</v>
       </c>
-      <c r="AB44" s="6">
+      <c r="AD44" s="6">
         <v>28</v>
       </c>
-      <c r="AC44" s="6">
+      <c r="AE44" s="6">
         <v>5</v>
       </c>
-      <c r="AD44" s="6">
+      <c r="AF44" s="6">
         <v>1</v>
       </c>
-      <c r="AE44" s="6">
+      <c r="AG44" s="6">
         <v>2938</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>30</v>
       </c>
@@ -5702,70 +6079,78 @@
         <v>238</v>
       </c>
       <c r="K45" s="6">
+        <f t="shared" si="0"/>
+        <v>291</v>
+      </c>
+      <c r="L45" s="6">
         <v>304</v>
       </c>
-      <c r="L45" s="6">
+      <c r="M45" s="6">
         <v>371</v>
       </c>
-      <c r="M45" s="6">
+      <c r="N45" s="6">
         <v>317</v>
       </c>
-      <c r="N45" s="6">
+      <c r="O45" s="6">
         <v>260</v>
       </c>
-      <c r="O45" s="6">
+      <c r="P45" s="6">
         <v>272</v>
       </c>
-      <c r="P45" s="6">
+      <c r="Q45" s="6">
         <v>269</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="R45" s="6">
         <v>255</v>
       </c>
-      <c r="R45" s="6">
+      <c r="S45" s="6">
         <v>217</v>
       </c>
-      <c r="S45" s="6">
+      <c r="T45" s="6">
         <v>216</v>
       </c>
-      <c r="T45" s="6">
+      <c r="U45" s="6">
         <v>234</v>
       </c>
-      <c r="U45" s="6">
+      <c r="V45" s="6">
         <v>203</v>
       </c>
-      <c r="V45" s="6">
+      <c r="W45" s="6">
         <v>144</v>
       </c>
-      <c r="W45" s="6">
+      <c r="X45" s="6">
         <v>149</v>
       </c>
-      <c r="X45" s="6">
+      <c r="Y45" s="6">
         <v>116</v>
       </c>
-      <c r="Y45" s="6">
+      <c r="Z45" s="6">
         <v>109</v>
       </c>
-      <c r="Z45" s="6">
+      <c r="AA45" s="6">
         <v>76</v>
       </c>
-      <c r="AA45" s="6">
+      <c r="AB45" s="6">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="AC45" s="6">
         <v>56</v>
       </c>
-      <c r="AB45" s="6">
+      <c r="AD45" s="6">
         <v>27</v>
       </c>
-      <c r="AC45" s="6">
+      <c r="AE45" s="6">
         <v>10</v>
       </c>
-      <c r="AD45" s="6">
+      <c r="AF45" s="6">
         <v>2</v>
       </c>
-      <c r="AE45" s="6">
+      <c r="AG45" s="6">
         <v>3898</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
@@ -5798,70 +6183,78 @@
         <v>34</v>
       </c>
       <c r="K46" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="L46" s="6">
         <v>29</v>
       </c>
-      <c r="L46" s="6">
+      <c r="M46" s="6">
         <v>53</v>
       </c>
-      <c r="M46" s="6">
+      <c r="N46" s="6">
         <v>51</v>
       </c>
-      <c r="N46" s="6">
+      <c r="O46" s="6">
         <v>53</v>
       </c>
-      <c r="O46" s="6">
+      <c r="P46" s="6">
         <v>46</v>
       </c>
-      <c r="P46" s="6">
+      <c r="Q46" s="6">
         <v>44</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="R46" s="6">
         <v>35</v>
       </c>
-      <c r="R46" s="6">
+      <c r="S46" s="6">
         <v>27</v>
       </c>
-      <c r="S46" s="6">
+      <c r="T46" s="6">
         <v>39</v>
       </c>
-      <c r="T46" s="6">
+      <c r="U46" s="6">
         <v>42</v>
       </c>
-      <c r="U46" s="6">
+      <c r="V46" s="6">
         <v>37</v>
       </c>
-      <c r="V46" s="6">
+      <c r="W46" s="6">
         <v>33</v>
       </c>
-      <c r="W46" s="6">
+      <c r="X46" s="6">
         <v>58</v>
       </c>
-      <c r="X46" s="6">
+      <c r="Y46" s="6">
         <v>40</v>
       </c>
-      <c r="Y46" s="6">
+      <c r="Z46" s="6">
         <v>29</v>
       </c>
-      <c r="Z46" s="6">
+      <c r="AA46" s="6">
         <v>24</v>
       </c>
-      <c r="AA46" s="6">
+      <c r="AB46" s="6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AC46" s="6">
         <v>15</v>
       </c>
-      <c r="AB46" s="6">
+      <c r="AD46" s="6">
         <v>11</v>
       </c>
-      <c r="AC46" s="6" t="s">
+      <c r="AE46" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AD46" s="6" t="s">
+      <c r="AF46" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AE46" s="6">
+      <c r="AG46" s="6">
         <v>704</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>30</v>
       </c>
@@ -5894,70 +6287,78 @@
         <v>1407</v>
       </c>
       <c r="K47" s="6">
+        <f t="shared" si="0"/>
+        <v>1734</v>
+      </c>
+      <c r="L47" s="6">
         <v>2064</v>
       </c>
-      <c r="L47" s="6">
+      <c r="M47" s="6">
         <v>2212</v>
       </c>
-      <c r="M47" s="6">
+      <c r="N47" s="6">
         <v>2092</v>
       </c>
-      <c r="N47" s="6">
+      <c r="O47" s="6">
         <v>2218</v>
       </c>
-      <c r="O47" s="6">
+      <c r="P47" s="6">
         <v>2096</v>
       </c>
-      <c r="P47" s="6">
+      <c r="Q47" s="6">
         <v>1914</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="R47" s="6">
         <v>1770</v>
       </c>
-      <c r="R47" s="6">
+      <c r="S47" s="6">
         <v>1609</v>
       </c>
-      <c r="S47" s="6">
+      <c r="T47" s="6">
         <v>1284</v>
       </c>
-      <c r="T47" s="6">
+      <c r="U47" s="6">
         <v>1093</v>
       </c>
-      <c r="U47" s="6">
+      <c r="V47" s="6">
         <v>833</v>
       </c>
-      <c r="V47" s="6">
+      <c r="W47" s="6">
         <v>716</v>
       </c>
-      <c r="W47" s="6">
+      <c r="X47" s="6">
         <v>507</v>
       </c>
-      <c r="X47" s="6">
+      <c r="Y47" s="6">
         <v>342</v>
       </c>
-      <c r="Y47" s="6">
+      <c r="Z47" s="6">
         <v>298</v>
       </c>
-      <c r="Z47" s="6">
+      <c r="AA47" s="6">
         <v>208</v>
       </c>
-      <c r="AA47" s="6">
+      <c r="AB47" s="6">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="AC47" s="6">
         <v>123</v>
       </c>
-      <c r="AB47" s="6">
+      <c r="AD47" s="6">
         <v>66</v>
       </c>
-      <c r="AC47" s="6">
+      <c r="AE47" s="6">
         <v>19</v>
       </c>
-      <c r="AD47" s="6">
+      <c r="AF47" s="6">
         <v>4</v>
       </c>
-      <c r="AE47" s="6">
+      <c r="AG47" s="6">
         <v>23202</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>30</v>
       </c>
@@ -5990,70 +6391,78 @@
         <v>1372</v>
       </c>
       <c r="K48" s="6">
+        <f t="shared" si="0"/>
+        <v>1674</v>
+      </c>
+      <c r="L48" s="6">
         <v>2010</v>
       </c>
-      <c r="L48" s="6">
+      <c r="M48" s="6">
         <v>2181</v>
       </c>
-      <c r="M48" s="6">
+      <c r="N48" s="6">
         <v>2188</v>
       </c>
-      <c r="N48" s="6">
+      <c r="O48" s="6">
         <v>2094</v>
       </c>
-      <c r="O48" s="6">
+      <c r="P48" s="6">
         <v>1893</v>
       </c>
-      <c r="P48" s="6">
+      <c r="Q48" s="6">
         <v>1759</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="R48" s="6">
         <v>1657</v>
       </c>
-      <c r="R48" s="6">
+      <c r="S48" s="6">
         <v>1599</v>
       </c>
-      <c r="S48" s="6">
+      <c r="T48" s="6">
         <v>1324</v>
       </c>
-      <c r="T48" s="6">
+      <c r="U48" s="6">
         <v>1094</v>
       </c>
-      <c r="U48" s="6">
+      <c r="V48" s="6">
         <v>1014</v>
       </c>
-      <c r="V48" s="6">
+      <c r="W48" s="6">
         <v>782</v>
       </c>
-      <c r="W48" s="6">
+      <c r="X48" s="6">
         <v>628</v>
       </c>
-      <c r="X48" s="6">
+      <c r="Y48" s="6">
         <v>452</v>
       </c>
-      <c r="Y48" s="6">
+      <c r="Z48" s="6">
         <v>378</v>
       </c>
-      <c r="Z48" s="6">
+      <c r="AA48" s="6">
         <v>292</v>
       </c>
-      <c r="AA48" s="6">
+      <c r="AB48" s="6">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="AC48" s="6">
         <v>141</v>
       </c>
-      <c r="AB48" s="6">
+      <c r="AD48" s="6">
         <v>62</v>
       </c>
-      <c r="AC48" s="6">
+      <c r="AE48" s="6">
         <v>16</v>
       </c>
-      <c r="AD48" s="6">
+      <c r="AF48" s="6">
         <v>2</v>
       </c>
-      <c r="AE48" s="6">
+      <c r="AG48" s="6">
         <v>23240</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>30</v>
       </c>
@@ -6086,70 +6495,78 @@
         <v>1554</v>
       </c>
       <c r="K49" s="6">
+        <f t="shared" si="0"/>
+        <v>1888</v>
+      </c>
+      <c r="L49" s="6">
         <v>2699</v>
       </c>
-      <c r="L49" s="6">
+      <c r="M49" s="6">
         <v>3046</v>
       </c>
-      <c r="M49" s="6">
+      <c r="N49" s="6">
         <v>3002</v>
       </c>
-      <c r="N49" s="6">
+      <c r="O49" s="6">
         <v>2690</v>
       </c>
-      <c r="O49" s="6">
+      <c r="P49" s="6">
         <v>2674</v>
       </c>
-      <c r="P49" s="6">
+      <c r="Q49" s="6">
         <v>2867</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="R49" s="6">
         <v>2977</v>
       </c>
-      <c r="R49" s="6">
+      <c r="S49" s="6">
         <v>2963</v>
       </c>
-      <c r="S49" s="6">
+      <c r="T49" s="6">
         <v>2465</v>
       </c>
-      <c r="T49" s="6">
+      <c r="U49" s="6">
         <v>2040</v>
       </c>
-      <c r="U49" s="6">
+      <c r="V49" s="6">
         <v>1897</v>
       </c>
-      <c r="V49" s="6">
+      <c r="W49" s="6">
         <v>1660</v>
       </c>
-      <c r="W49" s="6">
+      <c r="X49" s="6">
         <v>1514</v>
       </c>
-      <c r="X49" s="6">
+      <c r="Y49" s="6">
         <v>1043</v>
       </c>
-      <c r="Y49" s="6">
+      <c r="Z49" s="6">
         <v>679</v>
       </c>
-      <c r="Z49" s="6">
+      <c r="AA49" s="6">
         <v>393</v>
       </c>
-      <c r="AA49" s="6">
+      <c r="AB49" s="6">
+        <f t="shared" si="1"/>
+        <v>386</v>
+      </c>
+      <c r="AC49" s="6">
         <v>243</v>
       </c>
-      <c r="AB49" s="6">
+      <c r="AD49" s="6">
         <v>105</v>
       </c>
-      <c r="AC49" s="6">
+      <c r="AE49" s="6">
         <v>34</v>
       </c>
-      <c r="AD49" s="6">
+      <c r="AF49" s="6">
         <v>4</v>
       </c>
-      <c r="AE49" s="6">
+      <c r="AG49" s="6">
         <v>36883</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>30</v>
       </c>
@@ -6181,71 +6598,79 @@
       <c r="J50" s="7">
         <v>2117</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="6">
+        <f t="shared" si="0"/>
+        <v>2555</v>
+      </c>
+      <c r="L50" s="7">
         <v>3294</v>
       </c>
-      <c r="L50" s="7">
+      <c r="M50" s="7">
         <v>3680</v>
       </c>
-      <c r="M50" s="7">
+      <c r="N50" s="7">
         <v>3608</v>
       </c>
-      <c r="N50" s="7">
+      <c r="O50" s="7">
         <v>4128</v>
       </c>
-      <c r="O50" s="7">
+      <c r="P50" s="7">
         <v>4464</v>
       </c>
-      <c r="P50" s="7">
+      <c r="Q50" s="7">
         <v>4664</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="R50" s="7">
         <v>4430</v>
       </c>
-      <c r="R50" s="7">
+      <c r="S50" s="7">
         <v>4228</v>
       </c>
-      <c r="S50" s="7">
+      <c r="T50" s="7">
         <v>3545</v>
       </c>
-      <c r="T50" s="7">
+      <c r="U50" s="7">
         <v>3284</v>
       </c>
-      <c r="U50" s="7">
+      <c r="V50" s="7">
         <v>2992</v>
       </c>
-      <c r="V50" s="7">
+      <c r="W50" s="7">
         <v>2722</v>
       </c>
-      <c r="W50" s="7">
+      <c r="X50" s="7">
         <v>2364</v>
       </c>
-      <c r="X50" s="7">
+      <c r="Y50" s="7">
         <v>1739</v>
       </c>
-      <c r="Y50" s="7">
+      <c r="Z50" s="7">
         <v>1290</v>
       </c>
-      <c r="Z50" s="7">
+      <c r="AA50" s="7">
         <v>793</v>
       </c>
-      <c r="AA50" s="7">
+      <c r="AB50" s="6">
+        <f t="shared" si="1"/>
+        <v>698</v>
+      </c>
+      <c r="AC50" s="7">
         <v>410</v>
       </c>
-      <c r="AB50" s="7">
+      <c r="AD50" s="7">
         <v>204</v>
       </c>
-      <c r="AC50" s="7">
+      <c r="AE50" s="7">
         <v>78</v>
       </c>
-      <c r="AD50" s="7">
+      <c r="AF50" s="7">
         <v>6</v>
       </c>
-      <c r="AE50" s="7">
+      <c r="AG50" s="7">
         <v>54478</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>30</v>
       </c>
@@ -6278,70 +6703,78 @@
         <v>261</v>
       </c>
       <c r="K51" s="6">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="L51" s="6">
         <v>359</v>
       </c>
-      <c r="L51" s="6">
+      <c r="M51" s="6">
         <v>396</v>
       </c>
-      <c r="M51" s="6">
+      <c r="N51" s="6">
         <v>386</v>
       </c>
-      <c r="N51" s="6">
+      <c r="O51" s="6">
         <v>425</v>
       </c>
-      <c r="O51" s="6">
+      <c r="P51" s="6">
         <v>358</v>
       </c>
-      <c r="P51" s="6">
+      <c r="Q51" s="6">
         <v>316</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="R51" s="6">
         <v>351</v>
       </c>
-      <c r="R51" s="6">
+      <c r="S51" s="6">
         <v>306</v>
       </c>
-      <c r="S51" s="6">
+      <c r="T51" s="6">
         <v>291</v>
       </c>
-      <c r="T51" s="6">
+      <c r="U51" s="6">
         <v>292</v>
       </c>
-      <c r="U51" s="6">
+      <c r="V51" s="6">
         <v>273</v>
       </c>
-      <c r="V51" s="6">
+      <c r="W51" s="6">
         <v>244</v>
       </c>
-      <c r="W51" s="6">
+      <c r="X51" s="6">
         <v>223</v>
       </c>
-      <c r="X51" s="6">
+      <c r="Y51" s="6">
         <v>201</v>
       </c>
-      <c r="Y51" s="6">
+      <c r="Z51" s="6">
         <v>167</v>
       </c>
-      <c r="Z51" s="6">
+      <c r="AA51" s="6">
         <v>125</v>
       </c>
-      <c r="AA51" s="6">
+      <c r="AB51" s="6">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="AC51" s="6">
         <v>57</v>
       </c>
-      <c r="AB51" s="6">
+      <c r="AD51" s="6">
         <v>32</v>
       </c>
-      <c r="AC51" s="6">
+      <c r="AE51" s="6">
         <v>11</v>
       </c>
-      <c r="AD51" s="6">
+      <c r="AF51" s="6">
         <v>2</v>
       </c>
-      <c r="AE51" s="6">
+      <c r="AG51" s="6">
         <v>5155</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>30</v>
       </c>
@@ -6374,70 +6807,78 @@
         <v>850</v>
       </c>
       <c r="K52" s="6">
+        <f t="shared" si="0"/>
+        <v>1043</v>
+      </c>
+      <c r="L52" s="6">
         <v>1448</v>
       </c>
-      <c r="L52" s="6">
+      <c r="M52" s="6">
         <v>1560</v>
       </c>
-      <c r="M52" s="6">
+      <c r="N52" s="6">
         <v>1594</v>
       </c>
-      <c r="N52" s="6">
+      <c r="O52" s="6">
         <v>1596</v>
       </c>
-      <c r="O52" s="6">
+      <c r="P52" s="6">
         <v>1364</v>
       </c>
-      <c r="P52" s="6">
+      <c r="Q52" s="6">
         <v>1319</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="R52" s="6">
         <v>1359</v>
       </c>
-      <c r="R52" s="6">
+      <c r="S52" s="6">
         <v>1336</v>
       </c>
-      <c r="S52" s="6">
+      <c r="T52" s="6">
         <v>1168</v>
       </c>
-      <c r="T52" s="6">
+      <c r="U52" s="6">
         <v>913</v>
       </c>
-      <c r="U52" s="6">
+      <c r="V52" s="6">
         <v>776</v>
       </c>
-      <c r="V52" s="6">
+      <c r="W52" s="6">
         <v>723</v>
       </c>
-      <c r="W52" s="6">
+      <c r="X52" s="6">
         <v>546</v>
       </c>
-      <c r="X52" s="6">
+      <c r="Y52" s="6">
         <v>392</v>
       </c>
-      <c r="Y52" s="6">
+      <c r="Z52" s="6">
         <v>279</v>
       </c>
-      <c r="Z52" s="6">
+      <c r="AA52" s="6">
         <v>185</v>
       </c>
-      <c r="AA52" s="6">
+      <c r="AB52" s="6">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="AC52" s="6">
         <v>103</v>
       </c>
-      <c r="AB52" s="6">
+      <c r="AD52" s="6">
         <v>57</v>
       </c>
-      <c r="AC52" s="6">
+      <c r="AE52" s="6">
         <v>16</v>
       </c>
-      <c r="AD52" s="6">
+      <c r="AF52" s="6">
         <v>3</v>
       </c>
-      <c r="AE52" s="6">
+      <c r="AG52" s="6">
         <v>17780</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>30</v>
       </c>
@@ -6469,71 +6910,79 @@
       <c r="J53" s="7">
         <v>3119</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="6">
+        <f t="shared" si="0"/>
+        <v>3827</v>
+      </c>
+      <c r="L53" s="7">
         <v>4870</v>
       </c>
-      <c r="L53" s="7">
+      <c r="M53" s="7">
         <v>5317</v>
       </c>
-      <c r="M53" s="7">
+      <c r="N53" s="7">
         <v>5625</v>
       </c>
-      <c r="N53" s="7">
+      <c r="O53" s="7">
         <v>6019</v>
       </c>
-      <c r="O53" s="7">
+      <c r="P53" s="7">
         <v>5998</v>
       </c>
-      <c r="P53" s="7">
+      <c r="Q53" s="7">
         <v>5677</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="R53" s="7">
         <v>5333</v>
       </c>
-      <c r="R53" s="7">
+      <c r="S53" s="7">
         <v>4892</v>
       </c>
-      <c r="S53" s="7">
+      <c r="T53" s="7">
         <v>4232</v>
       </c>
-      <c r="T53" s="7">
+      <c r="U53" s="7">
         <v>3816</v>
       </c>
-      <c r="U53" s="7">
+      <c r="V53" s="7">
         <v>3480</v>
       </c>
-      <c r="V53" s="7">
+      <c r="W53" s="7">
         <v>2969</v>
       </c>
-      <c r="W53" s="7">
+      <c r="X53" s="7">
         <v>2415</v>
       </c>
-      <c r="X53" s="7">
+      <c r="Y53" s="7">
         <v>1852</v>
       </c>
-      <c r="Y53" s="7">
+      <c r="Z53" s="7">
         <v>1192</v>
       </c>
-      <c r="Z53" s="7">
+      <c r="AA53" s="7">
         <v>679</v>
       </c>
-      <c r="AA53" s="7">
+      <c r="AB53" s="6">
+        <f t="shared" si="1"/>
+        <v>580</v>
+      </c>
+      <c r="AC53" s="7">
         <v>365</v>
       </c>
-      <c r="AB53" s="7">
+      <c r="AD53" s="7">
         <v>165</v>
       </c>
-      <c r="AC53" s="7">
+      <c r="AE53" s="7">
         <v>42</v>
       </c>
-      <c r="AD53" s="7">
+      <c r="AF53" s="7">
         <v>8</v>
       </c>
-      <c r="AE53" s="7">
+      <c r="AG53" s="7">
         <v>68773</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>30</v>
       </c>
@@ -6565,71 +7014,79 @@
       <c r="J54" s="7">
         <v>5877</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="6">
+        <f t="shared" si="0"/>
+        <v>7145</v>
+      </c>
+      <c r="L54" s="7">
         <v>8820</v>
       </c>
-      <c r="L54" s="7">
+      <c r="M54" s="7">
         <v>9650</v>
       </c>
-      <c r="M54" s="7">
+      <c r="N54" s="7">
         <v>9847</v>
       </c>
-      <c r="N54" s="7">
+      <c r="O54" s="7">
         <v>10017</v>
       </c>
-      <c r="O54" s="7">
+      <c r="P54" s="7">
         <v>9762</v>
       </c>
-      <c r="P54" s="7">
+      <c r="Q54" s="7">
         <v>9253</v>
       </c>
-      <c r="Q54" s="7">
+      <c r="R54" s="7">
         <v>8963</v>
       </c>
-      <c r="R54" s="7">
+      <c r="S54" s="7">
         <v>8163</v>
       </c>
-      <c r="S54" s="7">
+      <c r="T54" s="7">
         <v>6793</v>
       </c>
-      <c r="T54" s="7">
+      <c r="U54" s="7">
         <v>5622</v>
       </c>
-      <c r="U54" s="7">
+      <c r="V54" s="7">
         <v>4734</v>
       </c>
-      <c r="V54" s="7">
+      <c r="W54" s="7">
         <v>3851</v>
       </c>
-      <c r="W54" s="7">
+      <c r="X54" s="7">
         <v>2783</v>
       </c>
-      <c r="X54" s="7">
+      <c r="Y54" s="7">
         <v>1589</v>
       </c>
-      <c r="Y54" s="7">
+      <c r="Z54" s="7">
         <v>898</v>
       </c>
-      <c r="Z54" s="7">
+      <c r="AA54" s="7">
         <v>522</v>
       </c>
-      <c r="AA54" s="7">
+      <c r="AB54" s="6">
+        <f t="shared" si="1"/>
+        <v>577</v>
+      </c>
+      <c r="AC54" s="7">
         <v>354</v>
       </c>
-      <c r="AB54" s="7">
+      <c r="AD54" s="7">
         <v>150</v>
       </c>
-      <c r="AC54" s="7">
+      <c r="AE54" s="7">
         <v>61</v>
       </c>
-      <c r="AD54" s="7">
+      <c r="AF54" s="7">
         <v>12</v>
       </c>
-      <c r="AE54" s="7">
+      <c r="AG54" s="7">
         <v>108989</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="23" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" ht="23" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
@@ -6661,71 +7118,79 @@
       <c r="J55" s="7">
         <v>989</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="6">
+        <f t="shared" si="0"/>
+        <v>1199</v>
+      </c>
+      <c r="L55" s="7">
         <v>1554</v>
       </c>
-      <c r="L55" s="7">
+      <c r="M55" s="7">
         <v>1553</v>
       </c>
-      <c r="M55" s="7">
+      <c r="N55" s="7">
         <v>1516</v>
       </c>
-      <c r="N55" s="7">
+      <c r="O55" s="7">
         <v>1747</v>
       </c>
-      <c r="O55" s="7">
+      <c r="P55" s="7">
         <v>2135</v>
       </c>
-      <c r="P55" s="7">
+      <c r="Q55" s="7">
         <v>2761</v>
       </c>
-      <c r="Q55" s="7">
+      <c r="R55" s="7">
         <v>2982</v>
       </c>
-      <c r="R55" s="7">
+      <c r="S55" s="7">
         <v>2667</v>
       </c>
-      <c r="S55" s="7">
+      <c r="T55" s="7">
         <v>2172</v>
       </c>
-      <c r="T55" s="7">
+      <c r="U55" s="7">
         <v>1998</v>
       </c>
-      <c r="U55" s="7">
+      <c r="V55" s="7">
         <v>2026</v>
       </c>
-      <c r="V55" s="7">
+      <c r="W55" s="7">
         <v>2112</v>
       </c>
-      <c r="W55" s="7">
+      <c r="X55" s="7">
         <v>1865</v>
       </c>
-      <c r="X55" s="7">
+      <c r="Y55" s="7">
         <v>1570</v>
       </c>
-      <c r="Y55" s="7">
+      <c r="Z55" s="7">
         <v>1211</v>
       </c>
-      <c r="Z55" s="7">
+      <c r="AA55" s="7">
         <v>809</v>
       </c>
-      <c r="AA55" s="7">
+      <c r="AB55" s="6">
+        <f t="shared" si="1"/>
+        <v>775</v>
+      </c>
+      <c r="AC55" s="7">
         <v>459</v>
       </c>
-      <c r="AB55" s="7">
+      <c r="AD55" s="7">
         <v>229</v>
       </c>
-      <c r="AC55" s="7">
+      <c r="AE55" s="7">
         <v>71</v>
       </c>
-      <c r="AD55" s="7">
+      <c r="AF55" s="7">
         <v>16</v>
       </c>
-      <c r="AE55" s="7">
+      <c r="AG55" s="7">
         <v>32652</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>30</v>
       </c>
@@ -6758,70 +7223,78 @@
         <v>2617</v>
       </c>
       <c r="K56" s="6">
+        <f t="shared" si="0"/>
+        <v>3120</v>
+      </c>
+      <c r="L56" s="6">
         <v>3950</v>
       </c>
-      <c r="L56" s="6">
+      <c r="M56" s="6">
         <v>4531</v>
       </c>
-      <c r="M56" s="6">
+      <c r="N56" s="6">
         <v>4559</v>
       </c>
-      <c r="N56" s="6">
+      <c r="O56" s="6">
         <v>4203</v>
       </c>
-      <c r="O56" s="6">
+      <c r="P56" s="6">
         <v>4006</v>
       </c>
-      <c r="P56" s="6">
+      <c r="Q56" s="6">
         <v>3865</v>
       </c>
-      <c r="Q56" s="6">
+      <c r="R56" s="6">
         <v>4138</v>
       </c>
-      <c r="R56" s="6">
+      <c r="S56" s="6">
         <v>3738</v>
       </c>
-      <c r="S56" s="6">
+      <c r="T56" s="6">
         <v>3004</v>
       </c>
-      <c r="T56" s="6">
+      <c r="U56" s="6">
         <v>2504</v>
       </c>
-      <c r="U56" s="6">
+      <c r="V56" s="6">
         <v>2221</v>
       </c>
-      <c r="V56" s="6">
+      <c r="W56" s="6">
         <v>1895</v>
       </c>
-      <c r="W56" s="6">
+      <c r="X56" s="6">
         <v>1495</v>
       </c>
-      <c r="X56" s="6">
+      <c r="Y56" s="6">
         <v>1141</v>
       </c>
-      <c r="Y56" s="6">
+      <c r="Z56" s="6">
         <v>751</v>
       </c>
-      <c r="Z56" s="6">
+      <c r="AA56" s="6">
         <v>433</v>
       </c>
-      <c r="AA56" s="6">
+      <c r="AB56" s="6">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+      <c r="AC56" s="6">
         <v>254</v>
       </c>
-      <c r="AB56" s="6">
+      <c r="AD56" s="6">
         <v>126</v>
       </c>
-      <c r="AC56" s="6">
+      <c r="AE56" s="6">
         <v>49</v>
       </c>
-      <c r="AD56" s="6">
+      <c r="AF56" s="6">
         <v>1</v>
       </c>
-      <c r="AE56" s="6">
+      <c r="AG56" s="6">
         <v>49984</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>30</v>
       </c>
@@ -6853,71 +7326,79 @@
       <c r="J57" s="7">
         <v>2361</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="6">
+        <f t="shared" si="0"/>
+        <v>2827</v>
+      </c>
+      <c r="L57" s="7">
         <v>3756</v>
       </c>
-      <c r="L57" s="7">
+      <c r="M57" s="7">
         <v>4338</v>
       </c>
-      <c r="M57" s="7">
+      <c r="N57" s="7">
         <v>4492</v>
       </c>
-      <c r="N57" s="7">
+      <c r="O57" s="7">
         <v>4481</v>
       </c>
-      <c r="O57" s="7">
+      <c r="P57" s="7">
         <v>4910</v>
       </c>
-      <c r="P57" s="7">
+      <c r="Q57" s="7">
         <v>4757</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="R57" s="7">
         <v>4356</v>
       </c>
-      <c r="R57" s="7">
+      <c r="S57" s="7">
         <v>4007</v>
       </c>
-      <c r="S57" s="7">
+      <c r="T57" s="7">
         <v>3379</v>
       </c>
-      <c r="T57" s="7">
+      <c r="U57" s="7">
         <v>3709</v>
       </c>
-      <c r="U57" s="7">
+      <c r="V57" s="7">
         <v>3529</v>
       </c>
-      <c r="V57" s="7">
+      <c r="W57" s="7">
         <v>2979</v>
       </c>
-      <c r="W57" s="7">
+      <c r="X57" s="7">
         <v>2138</v>
       </c>
-      <c r="X57" s="7">
+      <c r="Y57" s="7">
         <v>1625</v>
       </c>
-      <c r="Y57" s="7">
+      <c r="Z57" s="7">
         <v>1379</v>
       </c>
-      <c r="Z57" s="7">
+      <c r="AA57" s="7">
         <v>1069</v>
       </c>
-      <c r="AA57" s="7">
+      <c r="AB57" s="6">
+        <f t="shared" si="1"/>
+        <v>984</v>
+      </c>
+      <c r="AC57" s="7">
         <v>605</v>
       </c>
-      <c r="AB57" s="7">
+      <c r="AD57" s="7">
         <v>306</v>
       </c>
-      <c r="AC57" s="7">
+      <c r="AE57" s="7">
         <v>62</v>
       </c>
-      <c r="AD57" s="7">
+      <c r="AF57" s="7">
         <v>11</v>
       </c>
-      <c r="AE57" s="7">
+      <c r="AG57" s="7">
         <v>58715</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="23" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" ht="23" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>30</v>
       </c>
@@ -6949,71 +7430,79 @@
       <c r="J58" s="7">
         <v>2270</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="6">
+        <f t="shared" si="0"/>
+        <v>2793</v>
+      </c>
+      <c r="L58" s="7">
         <v>3617</v>
       </c>
-      <c r="L58" s="7">
+      <c r="M58" s="7">
         <v>3983</v>
       </c>
-      <c r="M58" s="7">
+      <c r="N58" s="7">
         <v>3959</v>
       </c>
-      <c r="N58" s="7">
+      <c r="O58" s="7">
         <v>4172</v>
       </c>
-      <c r="O58" s="7">
+      <c r="P58" s="7">
         <v>4220</v>
       </c>
-      <c r="P58" s="7">
+      <c r="Q58" s="7">
         <v>4167</v>
       </c>
-      <c r="Q58" s="7">
+      <c r="R58" s="7">
         <v>4083</v>
       </c>
-      <c r="R58" s="7">
+      <c r="S58" s="7">
         <v>3887</v>
       </c>
-      <c r="S58" s="7">
+      <c r="T58" s="7">
         <v>3183</v>
       </c>
-      <c r="T58" s="7">
+      <c r="U58" s="7">
         <v>2905</v>
       </c>
-      <c r="U58" s="7">
+      <c r="V58" s="7">
         <v>2443</v>
       </c>
-      <c r="V58" s="7">
+      <c r="W58" s="7">
         <v>2004</v>
       </c>
-      <c r="W58" s="7">
+      <c r="X58" s="7">
         <v>1642</v>
       </c>
-      <c r="X58" s="7">
+      <c r="Y58" s="7">
         <v>1058</v>
       </c>
-      <c r="Y58" s="7">
+      <c r="Z58" s="7">
         <v>703</v>
       </c>
-      <c r="Z58" s="7">
+      <c r="AA58" s="7">
         <v>415</v>
       </c>
-      <c r="AA58" s="7">
+      <c r="AB58" s="6">
+        <f t="shared" si="1"/>
+        <v>339</v>
+      </c>
+      <c r="AC58" s="7">
         <v>224</v>
       </c>
-      <c r="AB58" s="7">
+      <c r="AD58" s="7">
         <v>76</v>
       </c>
-      <c r="AC58" s="7">
+      <c r="AE58" s="7">
         <v>37</v>
       </c>
-      <c r="AD58" s="7">
+      <c r="AF58" s="7">
         <v>2</v>
       </c>
-      <c r="AE58" s="7">
+      <c r="AG58" s="7">
         <v>49573</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>30</v>
       </c>
@@ -7046,70 +7535,78 @@
         <v>258</v>
       </c>
       <c r="K59" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="L59" s="6">
         <v>431</v>
       </c>
-      <c r="L59" s="6">
+      <c r="M59" s="6">
         <v>492</v>
       </c>
-      <c r="M59" s="6">
+      <c r="N59" s="6">
         <v>476</v>
       </c>
-      <c r="N59" s="6">
+      <c r="O59" s="6">
         <v>423</v>
       </c>
-      <c r="O59" s="6">
+      <c r="P59" s="6">
         <v>350</v>
       </c>
-      <c r="P59" s="6">
+      <c r="Q59" s="6">
         <v>299</v>
       </c>
-      <c r="Q59" s="6">
+      <c r="R59" s="6">
         <v>366</v>
       </c>
-      <c r="R59" s="6">
+      <c r="S59" s="6">
         <v>347</v>
       </c>
-      <c r="S59" s="6">
+      <c r="T59" s="6">
         <v>294</v>
       </c>
-      <c r="T59" s="6">
+      <c r="U59" s="6">
         <v>270</v>
       </c>
-      <c r="U59" s="6">
+      <c r="V59" s="6">
         <v>283</v>
       </c>
-      <c r="V59" s="6">
+      <c r="W59" s="6">
         <v>251</v>
       </c>
-      <c r="W59" s="6">
+      <c r="X59" s="6">
         <v>280</v>
       </c>
-      <c r="X59" s="6">
+      <c r="Y59" s="6">
         <v>181</v>
       </c>
-      <c r="Y59" s="6">
+      <c r="Z59" s="6">
         <v>218</v>
       </c>
-      <c r="Z59" s="6">
+      <c r="AA59" s="6">
         <v>160</v>
       </c>
-      <c r="AA59" s="6">
+      <c r="AB59" s="6">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+      <c r="AC59" s="6">
         <v>79</v>
       </c>
-      <c r="AB59" s="6">
+      <c r="AD59" s="6">
         <v>50</v>
       </c>
-      <c r="AC59" s="6">
+      <c r="AE59" s="6">
         <v>10</v>
       </c>
-      <c r="AD59" s="6">
+      <c r="AF59" s="6">
         <v>4</v>
       </c>
-      <c r="AE59" s="6">
+      <c r="AG59" s="6">
         <v>5589</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>30</v>
       </c>
@@ -7141,71 +7638,79 @@
       <c r="J60" s="7">
         <v>2143</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K60" s="6">
+        <f t="shared" si="0"/>
+        <v>2583</v>
+      </c>
+      <c r="L60" s="7">
         <v>3204</v>
       </c>
-      <c r="L60" s="7">
+      <c r="M60" s="7">
         <v>3816</v>
       </c>
-      <c r="M60" s="7">
+      <c r="N60" s="7">
         <v>3972</v>
       </c>
-      <c r="N60" s="7">
+      <c r="O60" s="7">
         <v>4121</v>
       </c>
-      <c r="O60" s="7">
+      <c r="P60" s="7">
         <v>3882</v>
       </c>
-      <c r="P60" s="7">
+      <c r="Q60" s="7">
         <v>3675</v>
       </c>
-      <c r="Q60" s="7">
+      <c r="R60" s="7">
         <v>3494</v>
       </c>
-      <c r="R60" s="7">
+      <c r="S60" s="7">
         <v>3204</v>
       </c>
-      <c r="S60" s="7">
+      <c r="T60" s="7">
         <v>2883</v>
       </c>
-      <c r="T60" s="7">
+      <c r="U60" s="7">
         <v>2798</v>
       </c>
-      <c r="U60" s="7">
+      <c r="V60" s="7">
         <v>2434</v>
       </c>
-      <c r="V60" s="7">
+      <c r="W60" s="7">
         <v>2165</v>
       </c>
-      <c r="W60" s="7">
+      <c r="X60" s="7">
         <v>1723</v>
       </c>
-      <c r="X60" s="7">
+      <c r="Y60" s="7">
         <v>1304</v>
       </c>
-      <c r="Y60" s="7">
+      <c r="Z60" s="7">
         <v>1016</v>
       </c>
-      <c r="Z60" s="7">
+      <c r="AA60" s="7">
         <v>707</v>
       </c>
-      <c r="AA60" s="7">
+      <c r="AB60" s="6">
+        <f t="shared" si="1"/>
+        <v>698</v>
+      </c>
+      <c r="AC60" s="7">
         <v>400</v>
       </c>
-      <c r="AB60" s="7">
+      <c r="AD60" s="7">
         <v>220</v>
       </c>
-      <c r="AC60" s="7">
+      <c r="AE60" s="7">
         <v>63</v>
       </c>
-      <c r="AD60" s="7">
+      <c r="AF60" s="7">
         <v>15</v>
       </c>
-      <c r="AE60" s="7">
+      <c r="AG60" s="7">
         <v>47679</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>30</v>
       </c>
@@ -7237,71 +7742,79 @@
       <c r="J61" s="7">
         <v>3177</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61" s="6">
+        <f t="shared" si="0"/>
+        <v>3805</v>
+      </c>
+      <c r="L61" s="7">
         <v>5208</v>
       </c>
-      <c r="L61" s="7">
+      <c r="M61" s="7">
         <v>5875</v>
       </c>
-      <c r="M61" s="7">
+      <c r="N61" s="7">
         <v>5798</v>
       </c>
-      <c r="N61" s="7">
+      <c r="O61" s="7">
         <v>5969</v>
       </c>
-      <c r="O61" s="7">
+      <c r="P61" s="7">
         <v>5927</v>
       </c>
-      <c r="P61" s="7">
+      <c r="Q61" s="7">
         <v>5781</v>
       </c>
-      <c r="Q61" s="7">
+      <c r="R61" s="7">
         <v>5825</v>
       </c>
-      <c r="R61" s="7">
+      <c r="S61" s="7">
         <v>5294</v>
       </c>
-      <c r="S61" s="7">
+      <c r="T61" s="7">
         <v>4274</v>
       </c>
-      <c r="T61" s="7">
+      <c r="U61" s="7">
         <v>3654</v>
       </c>
-      <c r="U61" s="7">
+      <c r="V61" s="7">
         <v>3267</v>
       </c>
-      <c r="V61" s="7">
+      <c r="W61" s="7">
         <v>3393</v>
       </c>
-      <c r="W61" s="7">
+      <c r="X61" s="7">
         <v>3314</v>
       </c>
-      <c r="X61" s="7">
+      <c r="Y61" s="7">
         <v>2246</v>
       </c>
-      <c r="Y61" s="7">
+      <c r="Z61" s="7">
         <v>1391</v>
       </c>
-      <c r="Z61" s="7">
+      <c r="AA61" s="7">
         <v>800</v>
       </c>
-      <c r="AA61" s="7">
+      <c r="AB61" s="6">
+        <f t="shared" si="1"/>
+        <v>668</v>
+      </c>
+      <c r="AC61" s="7">
         <v>417</v>
       </c>
-      <c r="AB61" s="7">
+      <c r="AD61" s="7">
         <v>193</v>
       </c>
-      <c r="AC61" s="7">
+      <c r="AE61" s="7">
         <v>49</v>
       </c>
-      <c r="AD61" s="7">
+      <c r="AF61" s="7">
         <v>9</v>
       </c>
-      <c r="AE61" s="7">
+      <c r="AG61" s="7">
         <v>72489</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>30</v>
       </c>
@@ -7334,70 +7847,78 @@
         <v>174</v>
       </c>
       <c r="K62" s="6">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="L62" s="6">
         <v>297</v>
       </c>
-      <c r="L62" s="6">
+      <c r="M62" s="6">
         <v>320</v>
       </c>
-      <c r="M62" s="6">
+      <c r="N62" s="6">
         <v>317</v>
       </c>
-      <c r="N62" s="6">
+      <c r="O62" s="6">
         <v>373</v>
       </c>
-      <c r="O62" s="6">
+      <c r="P62" s="6">
         <v>315</v>
       </c>
-      <c r="P62" s="6">
+      <c r="Q62" s="6">
         <v>275</v>
       </c>
-      <c r="Q62" s="6">
+      <c r="R62" s="6">
         <v>338</v>
       </c>
-      <c r="R62" s="6">
+      <c r="S62" s="6">
         <v>244</v>
       </c>
-      <c r="S62" s="6">
+      <c r="T62" s="6">
         <v>261</v>
       </c>
-      <c r="T62" s="6">
+      <c r="U62" s="6">
         <v>189</v>
       </c>
-      <c r="U62" s="6">
+      <c r="V62" s="6">
         <v>172</v>
       </c>
-      <c r="V62" s="6">
+      <c r="W62" s="6">
         <v>133</v>
       </c>
-      <c r="W62" s="6">
+      <c r="X62" s="6">
         <v>142</v>
       </c>
-      <c r="X62" s="6">
+      <c r="Y62" s="6">
         <v>95</v>
       </c>
-      <c r="Y62" s="6">
+      <c r="Z62" s="6">
         <v>66</v>
       </c>
-      <c r="Z62" s="6">
+      <c r="AA62" s="6">
         <v>61</v>
       </c>
-      <c r="AA62" s="6">
+      <c r="AB62" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="AC62" s="6">
         <v>20</v>
       </c>
-      <c r="AB62" s="6">
+      <c r="AD62" s="6">
         <v>15</v>
       </c>
-      <c r="AC62" s="6">
+      <c r="AE62" s="6">
         <v>7</v>
       </c>
-      <c r="AD62" s="6">
+      <c r="AF62" s="6">
         <v>1</v>
       </c>
-      <c r="AE62" s="6">
+      <c r="AG62" s="6">
         <v>3851</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>30</v>
       </c>
@@ -7430,70 +7951,78 @@
         <v>4068</v>
       </c>
       <c r="K63" s="6">
+        <f t="shared" si="0"/>
+        <v>4875</v>
+      </c>
+      <c r="L63" s="6">
         <v>6237</v>
       </c>
-      <c r="L63" s="6">
+      <c r="M63" s="6">
         <v>6488</v>
       </c>
-      <c r="M63" s="6">
+      <c r="N63" s="6">
         <v>6550</v>
       </c>
-      <c r="N63" s="6">
+      <c r="O63" s="6">
         <v>6399</v>
       </c>
-      <c r="O63" s="6">
+      <c r="P63" s="6">
         <v>6135</v>
       </c>
-      <c r="P63" s="6">
+      <c r="Q63" s="6">
         <v>6256</v>
       </c>
-      <c r="Q63" s="6">
+      <c r="R63" s="6">
         <v>6611</v>
       </c>
-      <c r="R63" s="6">
+      <c r="S63" s="6">
         <v>6249</v>
       </c>
-      <c r="S63" s="6">
+      <c r="T63" s="6">
         <v>5412</v>
       </c>
-      <c r="T63" s="6">
+      <c r="U63" s="6">
         <v>4332</v>
       </c>
-      <c r="U63" s="6">
+      <c r="V63" s="6">
         <v>3525</v>
       </c>
-      <c r="V63" s="6">
+      <c r="W63" s="6">
         <v>2907</v>
       </c>
-      <c r="W63" s="6">
+      <c r="X63" s="6">
         <v>2379</v>
       </c>
-      <c r="X63" s="6">
+      <c r="Y63" s="6">
         <v>1799</v>
       </c>
-      <c r="Y63" s="6">
+      <c r="Z63" s="6">
         <v>1324</v>
       </c>
-      <c r="Z63" s="6">
+      <c r="AA63" s="6">
         <v>780</v>
       </c>
-      <c r="AA63" s="6">
+      <c r="AB63" s="6">
+        <f t="shared" si="1"/>
+        <v>851</v>
+      </c>
+      <c r="AC63" s="6">
         <v>517</v>
       </c>
-      <c r="AB63" s="6">
+      <c r="AD63" s="6">
         <v>249</v>
       </c>
-      <c r="AC63" s="6">
+      <c r="AE63" s="6">
         <v>71</v>
       </c>
-      <c r="AD63" s="6">
+      <c r="AF63" s="6">
         <v>14</v>
       </c>
-      <c r="AE63" s="6">
+      <c r="AG63" s="6">
         <v>79109</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>30</v>
       </c>
@@ -7525,71 +8054,79 @@
       <c r="J64" s="7">
         <v>5395</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="6">
+        <f t="shared" si="0"/>
+        <v>6592</v>
+      </c>
+      <c r="L64" s="7">
         <v>8259</v>
       </c>
-      <c r="L64" s="7">
+      <c r="M64" s="7">
         <v>8891</v>
       </c>
-      <c r="M64" s="7">
+      <c r="N64" s="7">
         <v>9058</v>
       </c>
-      <c r="N64" s="7">
+      <c r="O64" s="7">
         <v>8677</v>
       </c>
-      <c r="O64" s="7">
+      <c r="P64" s="7">
         <v>8122</v>
       </c>
-      <c r="P64" s="7">
+      <c r="Q64" s="7">
         <v>7807</v>
       </c>
-      <c r="Q64" s="7">
+      <c r="R64" s="7">
         <v>7622</v>
       </c>
-      <c r="R64" s="7">
+      <c r="S64" s="7">
         <v>6811</v>
       </c>
-      <c r="S64" s="7">
+      <c r="T64" s="7">
         <v>5532</v>
       </c>
-      <c r="T64" s="7">
+      <c r="U64" s="7">
         <v>4643</v>
       </c>
-      <c r="U64" s="7">
+      <c r="V64" s="7">
         <v>3617</v>
       </c>
-      <c r="V64" s="7">
+      <c r="W64" s="7">
         <v>2719</v>
       </c>
-      <c r="W64" s="7">
+      <c r="X64" s="7">
         <v>1899</v>
       </c>
-      <c r="X64" s="7">
+      <c r="Y64" s="7">
         <v>1157</v>
       </c>
-      <c r="Y64" s="7">
+      <c r="Z64" s="7">
         <v>739</v>
       </c>
-      <c r="Z64" s="7">
+      <c r="AA64" s="7">
         <v>447</v>
       </c>
-      <c r="AA64" s="7">
+      <c r="AB64" s="6">
+        <f t="shared" si="1"/>
+        <v>413</v>
+      </c>
+      <c r="AC64" s="7">
         <v>263</v>
       </c>
-      <c r="AB64" s="7">
+      <c r="AD64" s="7">
         <v>117</v>
       </c>
-      <c r="AC64" s="7">
+      <c r="AE64" s="7">
         <v>30</v>
       </c>
-      <c r="AD64" s="7">
+      <c r="AF64" s="7">
         <v>3</v>
       </c>
-      <c r="AE64" s="7">
+      <c r="AG64" s="7">
         <v>93005</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>30</v>
       </c>
@@ -7622,70 +8159,78 @@
         <v>1526</v>
       </c>
       <c r="K65" s="6">
+        <f t="shared" si="0"/>
+        <v>1880</v>
+      </c>
+      <c r="L65" s="6">
         <v>2229</v>
       </c>
-      <c r="L65" s="6">
+      <c r="M65" s="6">
         <v>2418</v>
       </c>
-      <c r="M65" s="6">
+      <c r="N65" s="6">
         <v>2483</v>
       </c>
-      <c r="N65" s="6">
+      <c r="O65" s="6">
         <v>2438</v>
       </c>
-      <c r="O65" s="6">
+      <c r="P65" s="6">
         <v>2346</v>
       </c>
-      <c r="P65" s="6">
+      <c r="Q65" s="6">
         <v>2088</v>
       </c>
-      <c r="Q65" s="6">
+      <c r="R65" s="6">
         <v>2009</v>
       </c>
-      <c r="R65" s="6">
+      <c r="S65" s="6">
         <v>1854</v>
       </c>
-      <c r="S65" s="6">
+      <c r="T65" s="6">
         <v>1561</v>
       </c>
-      <c r="T65" s="6">
+      <c r="U65" s="6">
         <v>1366</v>
       </c>
-      <c r="U65" s="6">
+      <c r="V65" s="6">
         <v>1064</v>
       </c>
-      <c r="V65" s="6">
+      <c r="W65" s="6">
         <v>832</v>
       </c>
-      <c r="W65" s="6">
+      <c r="X65" s="6">
         <v>615</v>
       </c>
-      <c r="X65" s="6">
+      <c r="Y65" s="6">
         <v>462</v>
       </c>
-      <c r="Y65" s="6">
+      <c r="Z65" s="6">
         <v>349</v>
       </c>
-      <c r="Z65" s="6">
+      <c r="AA65" s="6">
         <v>277</v>
       </c>
-      <c r="AA65" s="6">
+      <c r="AB65" s="6">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="AC65" s="6">
         <v>171</v>
       </c>
-      <c r="AB65" s="6">
+      <c r="AD65" s="6">
         <v>94</v>
       </c>
-      <c r="AC65" s="6">
+      <c r="AE65" s="6">
         <v>26</v>
       </c>
-      <c r="AD65" s="6">
+      <c r="AF65" s="6">
         <v>2</v>
       </c>
-      <c r="AE65" s="6">
+      <c r="AG65" s="6">
         <v>26564</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>30</v>
       </c>
@@ -7718,194 +8263,468 @@
         <v>327</v>
       </c>
       <c r="K66" s="6">
+        <f t="shared" si="0"/>
+        <v>391</v>
+      </c>
+      <c r="L66" s="6">
         <v>468</v>
       </c>
-      <c r="L66" s="6">
+      <c r="M66" s="6">
         <v>540</v>
       </c>
-      <c r="M66" s="6">
+      <c r="N66" s="6">
         <v>519</v>
       </c>
-      <c r="N66" s="6">
+      <c r="O66" s="6">
         <v>559</v>
       </c>
-      <c r="O66" s="6">
+      <c r="P66" s="6">
         <v>508</v>
       </c>
-      <c r="P66" s="6">
+      <c r="Q66" s="6">
         <v>423</v>
       </c>
-      <c r="Q66" s="6">
+      <c r="R66" s="6">
         <v>479</v>
       </c>
-      <c r="R66" s="6">
+      <c r="S66" s="6">
         <v>445</v>
       </c>
-      <c r="S66" s="6">
+      <c r="T66" s="6">
         <v>382</v>
       </c>
-      <c r="T66" s="6">
+      <c r="U66" s="6">
         <v>362</v>
       </c>
-      <c r="U66" s="6">
+      <c r="V66" s="6">
         <v>310</v>
       </c>
-      <c r="V66" s="6">
+      <c r="W66" s="6">
         <v>241</v>
       </c>
-      <c r="W66" s="6">
+      <c r="X66" s="6">
         <v>185</v>
       </c>
-      <c r="X66" s="6">
+      <c r="Y66" s="6">
         <v>122</v>
       </c>
-      <c r="Y66" s="6">
+      <c r="Z66" s="6">
         <v>97</v>
       </c>
-      <c r="Z66" s="6">
+      <c r="AA66" s="6">
         <v>70</v>
       </c>
-      <c r="AA66" s="6">
+      <c r="AB66" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="AC66" s="6">
         <v>35</v>
       </c>
-      <c r="AB66" s="6">
+      <c r="AD66" s="6">
         <v>17</v>
       </c>
-      <c r="AC66" s="6">
+      <c r="AE66" s="6">
         <v>5</v>
       </c>
-      <c r="AD66" s="6">
+      <c r="AF66" s="6">
         <v>2</v>
       </c>
-      <c r="AE66" s="6">
-        <v>6160</v>
-      </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A67" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6">
+        <f>2760+2654</f>
+        <v>5414</v>
+      </c>
+      <c r="L67" s="6">
+        <f>3451+3461</f>
+        <v>6912</v>
+      </c>
+      <c r="M67" s="6">
+        <f>4064+3910</f>
+        <v>7974</v>
+      </c>
+      <c r="N67" s="6">
+        <f>4038+4161</f>
+        <v>8199</v>
+      </c>
+      <c r="O67" s="6">
+        <f>4179+4141</f>
+        <v>8320</v>
+      </c>
+      <c r="P67" s="6">
+        <f>4105+4282</f>
+        <v>8387</v>
+      </c>
+      <c r="Q67" s="6">
+        <f>3742+4142</f>
+        <v>7884</v>
+      </c>
+      <c r="R67" s="6">
+        <f>3731+4162</f>
+        <v>7893</v>
+      </c>
+      <c r="S67" s="6">
+        <f>3520+4075</f>
+        <v>7595</v>
+      </c>
+      <c r="T67" s="6">
+        <f>3186+3529</f>
+        <v>6715</v>
+      </c>
+      <c r="U67" s="6">
+        <f>3307+2765</f>
+        <v>6072</v>
+      </c>
+      <c r="V67" s="6">
+        <f>2538+2923</f>
+        <v>5461</v>
+      </c>
+      <c r="W67" s="6">
+        <f>2344+2626</f>
+        <v>4970</v>
+      </c>
+      <c r="X67" s="6">
+        <f>1798+2102</f>
+        <v>3900</v>
+      </c>
+      <c r="Y67" s="6">
+        <f>1339+1487</f>
+        <v>2826</v>
+      </c>
+      <c r="Z67" s="6">
+        <f>831+994</f>
+        <v>1825</v>
+      </c>
+      <c r="AA67" s="6">
+        <f>539+642</f>
+        <v>1181</v>
+      </c>
+      <c r="AB67" s="6">
+        <f>533+802</f>
+        <v>1335</v>
+      </c>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="6">
+        <f>SUM(K67:AB67)</f>
+        <v>102863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A68" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6">
+        <v>55</v>
+      </c>
+      <c r="L68" s="6">
+        <v>42</v>
+      </c>
+      <c r="M68" s="6">
+        <v>66</v>
+      </c>
+      <c r="N68" s="6">
+        <v>72</v>
+      </c>
+      <c r="O68" s="6">
+        <v>52</v>
+      </c>
+      <c r="P68" s="6">
+        <v>57</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>60</v>
+      </c>
+      <c r="R68" s="6">
+        <v>38</v>
+      </c>
+      <c r="S68" s="6">
+        <v>45</v>
+      </c>
+      <c r="T68" s="6">
+        <v>37</v>
+      </c>
+      <c r="U68" s="6">
+        <v>28</v>
+      </c>
+      <c r="V68" s="6">
+        <v>34</v>
+      </c>
+      <c r="W68" s="6">
+        <v>17</v>
+      </c>
+      <c r="X68" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y68" s="6">
+        <v>12</v>
+      </c>
+      <c r="Z68" s="6">
+        <v>13</v>
+      </c>
+      <c r="AA68" s="6">
+        <v>7</v>
+      </c>
+      <c r="AB68" s="6">
+        <v>10</v>
+      </c>
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="6"/>
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="6">
+        <f>SUM(K68:AB68)</f>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A69" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6">
+        <v>272</v>
+      </c>
+      <c r="L69" s="6">
+        <v>304</v>
+      </c>
+      <c r="M69" s="6">
+        <v>366</v>
+      </c>
+      <c r="N69" s="6">
+        <v>370</v>
+      </c>
+      <c r="O69" s="6">
+        <v>398</v>
+      </c>
+      <c r="P69" s="6">
+        <v>372</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>322</v>
+      </c>
+      <c r="R69" s="6">
+        <v>349</v>
+      </c>
+      <c r="S69" s="6">
+        <v>299</v>
+      </c>
+      <c r="T69" s="6">
+        <v>274</v>
+      </c>
+      <c r="U69" s="6">
+        <v>238</v>
+      </c>
+      <c r="V69" s="6">
+        <v>221</v>
+      </c>
+      <c r="W69" s="6">
+        <v>174</v>
+      </c>
+      <c r="X69" s="6">
+        <v>143</v>
+      </c>
+      <c r="Y69" s="6">
+        <v>96</v>
+      </c>
+      <c r="Z69" s="6">
+        <v>70</v>
+      </c>
+      <c r="AA69" s="6">
+        <v>63</v>
+      </c>
+      <c r="AB69" s="6">
+        <v>53</v>
+      </c>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6">
+        <f>SUM(K69:AB69)</f>
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="14">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="11">
         <v>1291774</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G70" s="11">
         <v>1387948</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H70" s="11">
         <v>2679722</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I70" s="11">
         <v>27640</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J70" s="11">
         <v>127966</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K70" s="11"/>
+      <c r="L70" s="11">
         <v>195613</v>
       </c>
-      <c r="L67" s="14">
+      <c r="M70" s="11">
         <v>218312</v>
       </c>
-      <c r="M67" s="14">
+      <c r="N70" s="11">
         <v>220364</v>
       </c>
-      <c r="N67" s="14">
+      <c r="O70" s="11">
         <v>225396</v>
       </c>
-      <c r="O67" s="14">
+      <c r="P70" s="11">
         <v>223108</v>
       </c>
-      <c r="P67" s="14">
+      <c r="Q70" s="11">
         <v>217349</v>
       </c>
-      <c r="Q67" s="14">
+      <c r="R70" s="11">
         <v>213803</v>
       </c>
-      <c r="R67" s="14">
+      <c r="S70" s="11">
         <v>196437</v>
       </c>
-      <c r="S67" s="14">
+      <c r="T70" s="11">
         <v>165334</v>
       </c>
-      <c r="T67" s="14">
+      <c r="U70" s="11">
         <v>146375</v>
       </c>
-      <c r="U67" s="14">
+      <c r="V70" s="11">
         <v>128891</v>
       </c>
-      <c r="V67" s="14">
+      <c r="W70" s="11">
         <v>111104</v>
       </c>
-      <c r="W67" s="14">
+      <c r="X70" s="11">
         <v>89935</v>
       </c>
-      <c r="X67" s="14">
+      <c r="Y70" s="11">
         <v>65805</v>
       </c>
-      <c r="Y67" s="14">
+      <c r="Z70" s="11">
         <v>46342</v>
       </c>
-      <c r="Z67" s="14">
+      <c r="AA70" s="11">
         <v>30462</v>
       </c>
-      <c r="AA67" s="14">
+      <c r="AB70" s="11"/>
+      <c r="AC70" s="11">
         <v>17486</v>
       </c>
-      <c r="AB67" s="14">
+      <c r="AD70" s="11">
         <v>8892</v>
       </c>
-      <c r="AC67" s="14">
+      <c r="AE70" s="11">
         <v>2652</v>
       </c>
-      <c r="AD67" s="14">
+      <c r="AF70" s="11">
         <v>456</v>
       </c>
-      <c r="AE67" s="14">
+      <c r="AG70" s="11">
         <v>2679722</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A68" s="15" t="s">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A71" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="17"/>
-      <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="17"/>
-      <c r="Z68" s="17"/>
-      <c r="AA68" s="17"/>
-      <c r="AB68" s="17"/>
-      <c r="AC68" s="17"/>
-      <c r="AD68" s="17"/>
-      <c r="AE68" s="17"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="14"/>
+      <c r="Z71" s="14"/>
+      <c r="AA71" s="14"/>
+      <c r="AB71" s="14"/>
+      <c r="AC71" s="14"/>
+      <c r="AD71" s="14"/>
+      <c r="AE71" s="14"/>
+      <c r="AF71" s="14"/>
+      <c r="AG71" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AG71" xr:uid="{A143ABFC-0DC5-46B0-BF60-53BE90F85110}"/>
   <mergeCells count="1">
-    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A70:D70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
